--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_23_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_23_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1799346.354413818</v>
+        <v>1791059.255124748</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11813663.13396006</v>
+        <v>11862339.47326615</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8538904.646449748</v>
+        <v>9006054.513033738</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6101292.174022959</v>
+        <v>5967796.120936841</v>
       </c>
     </row>
     <row r="11">
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>16.19836476161712</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>137.1466535117491</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L11" t="n">
-        <v>117.6649870191881</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M11" t="n">
-        <v>115.8519692306765</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N11" t="n">
-        <v>113.0661627084621</v>
+        <v>98.952650693317</v>
       </c>
       <c r="O11" t="n">
-        <v>120.2351321227097</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P11" t="n">
-        <v>137.4673993457644</v>
+        <v>93.46818680125885</v>
       </c>
       <c r="Q11" t="n">
-        <v>151.8916319349882</v>
+        <v>18.12882083368625</v>
       </c>
       <c r="R11" t="n">
-        <v>65.12058959679054</v>
+        <v>44.43641316899826</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.51288104943643</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8866,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.50757464242774</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>137.1466535117491</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L14" t="n">
-        <v>132.8680440907842</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M14" t="n">
-        <v>115.8519692306765</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N14" t="n">
-        <v>113.0661627084621</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P14" t="n">
-        <v>6.481921754595717</v>
+        <v>126.0931224081668</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>18.12882083368625</v>
       </c>
       <c r="R14" t="n">
-        <v>14.99950998284322</v>
+        <v>44.43641316899826</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>51.9099921327488</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>43.01332944396241</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>29.59757750060457</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9164,28 +9166,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.778013028548543</v>
+        <v>64.39935177915862</v>
       </c>
       <c r="L17" t="n">
-        <v>132.8680440907843</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N17" t="n">
-        <v>113.0661627084621</v>
+        <v>98.952650693317</v>
       </c>
       <c r="O17" t="n">
-        <v>120.2351321227098</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P17" t="n">
-        <v>137.4673993457644</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>14.99950998284324</v>
+        <v>22.21255041891161</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,28 +9403,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L20" t="n">
-        <v>132.8680440907843</v>
+        <v>30.5595995585726</v>
       </c>
       <c r="M20" t="n">
-        <v>114.8441757370104</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>120.2351321227098</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P20" t="n">
-        <v>137.4673993457644</v>
+        <v>126.0931224081668</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>14.99950998284324</v>
+        <v>22.21255041891161</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>137.1466535117492</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N23" t="n">
-        <v>82.50212123447515</v>
+        <v>98.952650693317</v>
       </c>
       <c r="O23" t="n">
-        <v>120.2351321227098</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>137.4673993457644</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>67.81874892713471</v>
       </c>
       <c r="R23" t="n">
-        <v>14.99950998284324</v>
+        <v>22.21255041891161</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9799,16 +9801,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>86.1248627443417</v>
       </c>
       <c r="M25" t="n">
-        <v>93.07709285387662</v>
+        <v>87.51539720327905</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>125.7039809463193</v>
+        <v>15.04950844050157</v>
       </c>
       <c r="K26" t="n">
-        <v>93.44443849602385</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L26" t="n">
-        <v>23.95825818227392</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M26" t="n">
-        <v>115.8519692306766</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N26" t="n">
-        <v>113.0661627084621</v>
+        <v>98.952650693317</v>
       </c>
       <c r="O26" t="n">
-        <v>11.32534621419941</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P26" t="n">
-        <v>137.4673993457644</v>
+        <v>126.0931224081668</v>
       </c>
       <c r="Q26" t="n">
-        <v>151.8916319349883</v>
+        <v>39.40882753767043</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>85.98863513236407</v>
       </c>
       <c r="R27" t="n">
-        <v>15.10871132562831</v>
+        <v>17.4497031694535</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10036,22 +10038,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>91.3998131978517</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>93.07709285387662</v>
+        <v>87.51539720327905</v>
       </c>
       <c r="N28" t="n">
-        <v>82.92703276885024</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>97.11480852518908</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>102.3530120923557</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.10340491861962</v>
+        <v>20.10100482862757</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>15.04950844050157</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>98.952650693317</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>75.60894064660565</v>
       </c>
       <c r="P29" t="n">
-        <v>137.4673993457644</v>
+        <v>126.0931224081668</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>39.40882753767043</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.09823070290567</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>17.4497031694535</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>95.03156866303385</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>91.39981319785171</v>
+        <v>86.1248627443417</v>
       </c>
       <c r="M31" t="n">
-        <v>93.07709285387665</v>
+        <v>87.51539720327905</v>
       </c>
       <c r="N31" t="n">
-        <v>82.92703276885027</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O31" t="n">
-        <v>97.11480852518909</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P31" t="n">
-        <v>102.3530120923557</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>20.10100482862757</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10352,25 +10354,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>132.8680440907843</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>115.8519692306766</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>98.952650693317</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>83.78955537915839</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>32.26453535496444</v>
+        <v>12.01253552814942</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10507,19 +10509,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>95.03156866303385</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>91.39981319785171</v>
+        <v>86.1248627443417</v>
       </c>
       <c r="M34" t="n">
-        <v>93.07709285387665</v>
+        <v>87.51539720327905</v>
       </c>
       <c r="N34" t="n">
-        <v>82.92703276885027</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O34" t="n">
-        <v>97.11480852518909</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10586,28 +10588,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>137.1466535117492</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>51.70413287440152</v>
       </c>
       <c r="N35" t="n">
-        <v>113.0661627084622</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>126.0931224081668</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>12.01253552814942</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10741,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>91.39981319785171</v>
+        <v>86.1248627443417</v>
       </c>
       <c r="M37" t="n">
-        <v>93.07709285387665</v>
+        <v>87.51539720327905</v>
       </c>
       <c r="N37" t="n">
-        <v>82.92703276885027</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O37" t="n">
-        <v>42.61025593321666</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10826,16 +10828,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>113.0661627084622</v>
+        <v>98.952650693317</v>
       </c>
       <c r="O38" t="n">
-        <v>120.2351321227098</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>26.40250150005065</v>
+        <v>13.64980441479535</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10911,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>29.59757750060457</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>90.04566567111169</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10981,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>95.03156866303385</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>91.39981319785171</v>
+        <v>86.1248627443417</v>
       </c>
       <c r="M40" t="n">
-        <v>93.07709285387665</v>
+        <v>87.51539720327905</v>
       </c>
       <c r="N40" t="n">
-        <v>82.92703276885027</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P40" t="n">
-        <v>102.3530120923557</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>16.79419503780903</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K41" t="n">
-        <v>72.2334366524571</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L41" t="n">
-        <v>132.8680440907843</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M41" t="n">
-        <v>115.8519692306766</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N41" t="n">
-        <v>113.0661627084622</v>
+        <v>98.952650693317</v>
       </c>
       <c r="O41" t="n">
-        <v>120.2351321227098</v>
+        <v>30.98039584397108</v>
       </c>
       <c r="P41" t="n">
-        <v>137.4673993457644</v>
+        <v>123.9362559947378</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.8916319349883</v>
+        <v>67.42227655331867</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>13.95022758694862</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>14.11791857619202</v>
       </c>
       <c r="R42" t="n">
-        <v>15.10871132562832</v>
+        <v>45.46315218510173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>27.88037644326299</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>90.90940486238215</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>86.1248627443417</v>
       </c>
       <c r="M43" t="n">
-        <v>93.07709285387665</v>
+        <v>87.51539720327905</v>
       </c>
       <c r="N43" t="n">
-        <v>82.92703276885027</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.10340491861963</v>
+        <v>48.1144538442758</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>125.7039809463194</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K44" t="n">
-        <v>137.1466535117492</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L44" t="n">
-        <v>132.8680440907843</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M44" t="n">
-        <v>115.8519692306766</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N44" t="n">
-        <v>113.0661627084622</v>
+        <v>23.02490359839732</v>
       </c>
       <c r="O44" t="n">
-        <v>120.2351321227098</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P44" t="n">
-        <v>137.4673993457644</v>
+        <v>70.87012677577796</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.8916319349883</v>
+        <v>143.3500236482383</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>93.87635611233168</v>
+        <v>13.95022758694862</v>
       </c>
       <c r="K45" t="n">
-        <v>81.50537760306926</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>62.80359296438955</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>53.73643864213656</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>40.60449549164714</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>59.58941821720285</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>67.35411135590039</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>95.44787045047228</v>
+        <v>14.11791857619202</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>27.88037644326299</v>
       </c>
       <c r="K46" t="n">
-        <v>95.03156866303385</v>
+        <v>14.98165776746247</v>
       </c>
       <c r="L46" t="n">
-        <v>91.39981319785171</v>
+        <v>86.1248627443417</v>
       </c>
       <c r="M46" t="n">
-        <v>93.07709285387665</v>
+        <v>87.51539720327905</v>
       </c>
       <c r="N46" t="n">
-        <v>82.92703276885027</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O46" t="n">
-        <v>97.11480852518909</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P46" t="n">
-        <v>102.3530120923557</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>48.1144538442758</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>273.2282254787784</v>
+        <v>257.5126388489285</v>
       </c>
       <c r="C11" t="n">
-        <v>255.7672755863053</v>
+        <v>240.0516889564555</v>
       </c>
       <c r="D11" t="n">
-        <v>245.1774254359808</v>
+        <v>229.4618388061309</v>
       </c>
       <c r="E11" t="n">
-        <v>272.4247538875596</v>
+        <v>256.7091672577097</v>
       </c>
       <c r="F11" t="n">
-        <v>297.3704295570092</v>
+        <v>281.6548429271593</v>
       </c>
       <c r="G11" t="n">
-        <v>305.1450713906061</v>
+        <v>289.350387555846</v>
       </c>
       <c r="H11" t="n">
-        <v>223.2913794848147</v>
+        <v>206.7657386051779</v>
       </c>
       <c r="I11" t="n">
-        <v>75.83211808053458</v>
+        <v>57.06713645838295</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.65586539774203</v>
+        <v>67.13785121100022</v>
       </c>
       <c r="T11" t="n">
-        <v>110.7358847678377</v>
+        <v>94.67405012349332</v>
       </c>
       <c r="U11" t="n">
-        <v>141.7878727279481</v>
+        <v>126.0659583217054</v>
       </c>
       <c r="V11" t="n">
-        <v>218.2466422854327</v>
+        <v>202.5310556555828</v>
       </c>
       <c r="W11" t="n">
-        <v>239.7353525327108</v>
+        <v>224.0197659028609</v>
       </c>
       <c r="X11" t="n">
-        <v>260.2254844937668</v>
+        <v>244.5098978639169</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.7323224713514</v>
+        <v>261.0167358415015</v>
       </c>
     </row>
     <row r="12">
@@ -23334,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>57.02756746516512</v>
+        <v>41.31198083531524</v>
       </c>
       <c r="C12" t="n">
-        <v>63.20288280361352</v>
+        <v>47.48729617376364</v>
       </c>
       <c r="D12" t="n">
-        <v>37.93944937993653</v>
+        <v>22.22386275008665</v>
       </c>
       <c r="E12" t="n">
-        <v>48.13946427069872</v>
+        <v>32.42387764084884</v>
       </c>
       <c r="F12" t="n">
-        <v>35.56359620868166</v>
+        <v>19.84800957883178</v>
       </c>
       <c r="G12" t="n">
-        <v>27.4890235036285</v>
+        <v>11.73111613815141</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23385,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>55.6973088396774</v>
+        <v>39.19563310727833</v>
       </c>
       <c r="T12" t="n">
-        <v>89.25289146005515</v>
+        <v>73.36672256686577</v>
       </c>
       <c r="U12" t="n">
-        <v>116.41281343082</v>
+        <v>100.6944425420473</v>
       </c>
       <c r="V12" t="n">
-        <v>123.294970964723</v>
+        <v>107.5793843348732</v>
       </c>
       <c r="W12" t="n">
-        <v>142.1893669762174</v>
+        <v>126.4737803463675</v>
       </c>
       <c r="X12" t="n">
-        <v>96.26736901877526</v>
+        <v>80.55178238892537</v>
       </c>
       <c r="Y12" t="n">
-        <v>96.17707959260214</v>
+        <v>80.46149296275226</v>
       </c>
     </row>
     <row r="13">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.32636399723508</v>
+        <v>54.6107773673852</v>
       </c>
       <c r="C13" t="n">
-        <v>57.74120491392561</v>
+        <v>42.02561828407573</v>
       </c>
       <c r="D13" t="n">
-        <v>39.10985683351014</v>
+        <v>23.39427020366026</v>
       </c>
       <c r="E13" t="n">
-        <v>36.92834646186695</v>
+        <v>21.21275983201707</v>
       </c>
       <c r="F13" t="n">
-        <v>35.91543183822903</v>
+        <v>20.19984520837914</v>
       </c>
       <c r="G13" t="n">
-        <v>58.19287601837117</v>
+        <v>42.44180910541706</v>
       </c>
       <c r="H13" t="n">
-        <v>50.12107961394732</v>
+        <v>34.09004101249829</v>
       </c>
       <c r="I13" t="n">
-        <v>37.14897228787568</v>
+        <v>20.36639678067402</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.63648909668457</v>
+        <v>37.32557991925856</v>
       </c>
       <c r="S13" t="n">
-        <v>109.4137284261448</v>
+        <v>93.07981722619718</v>
       </c>
       <c r="T13" t="n">
-        <v>117.1902553978417</v>
+        <v>101.3230711947284</v>
       </c>
       <c r="U13" t="n">
-        <v>176.7974593269495</v>
+        <v>161.0799374089303</v>
       </c>
       <c r="V13" t="n">
-        <v>142.6320271391258</v>
+        <v>126.9164405092759</v>
       </c>
       <c r="W13" t="n">
-        <v>177.0173821518888</v>
+        <v>161.3017955220389</v>
       </c>
       <c r="X13" t="n">
-        <v>116.2040392043349</v>
+        <v>100.4884525744851</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.0790371673926</v>
+        <v>93.36345053754269</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>223.107145864831</v>
+        <v>257.5126388489285</v>
       </c>
       <c r="C14" t="n">
-        <v>205.646195972358</v>
+        <v>240.0516889564555</v>
       </c>
       <c r="D14" t="n">
-        <v>195.0563458220334</v>
+        <v>229.4618388061309</v>
       </c>
       <c r="E14" t="n">
-        <v>222.3036742736122</v>
+        <v>256.7091672577097</v>
       </c>
       <c r="F14" t="n">
-        <v>247.2493499430619</v>
+        <v>281.6548429271593</v>
       </c>
       <c r="G14" t="n">
-        <v>255.0239917766588</v>
+        <v>289.350387555846</v>
       </c>
       <c r="H14" t="n">
-        <v>173.1702998708674</v>
+        <v>206.7657386051779</v>
       </c>
       <c r="I14" t="n">
-        <v>25.71103846658727</v>
+        <v>57.06713645838295</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.53478578379472</v>
+        <v>67.13785121100022</v>
       </c>
       <c r="T14" t="n">
-        <v>60.61480515389042</v>
+        <v>94.67405012349332</v>
       </c>
       <c r="U14" t="n">
-        <v>91.66679311400082</v>
+        <v>126.0659583217054</v>
       </c>
       <c r="V14" t="n">
-        <v>168.1255626714854</v>
+        <v>202.5310556555828</v>
       </c>
       <c r="W14" t="n">
-        <v>189.6142729187635</v>
+        <v>224.0197659028609</v>
       </c>
       <c r="X14" t="n">
-        <v>210.1044048798195</v>
+        <v>244.5098978639169</v>
       </c>
       <c r="Y14" t="n">
-        <v>226.6112428574041</v>
+        <v>261.0167358415015</v>
       </c>
     </row>
     <row r="15">
@@ -23571,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.906487851217804</v>
+        <v>41.31198083531524</v>
       </c>
       <c r="C15" t="n">
-        <v>13.0818031896662</v>
+        <v>47.48729617376364</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>22.22386275008665</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>32.42387764084884</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>19.84800957883178</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>11.73111613815141</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23622,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>5.576229225730089</v>
+        <v>39.19563310727833</v>
       </c>
       <c r="T15" t="n">
-        <v>39.13181184610784</v>
+        <v>73.36672256686577</v>
       </c>
       <c r="U15" t="n">
-        <v>66.29173381687266</v>
+        <v>100.6944425420473</v>
       </c>
       <c r="V15" t="n">
-        <v>73.17389135077573</v>
+        <v>107.5793843348732</v>
       </c>
       <c r="W15" t="n">
-        <v>92.06828736227007</v>
+        <v>126.4737803463675</v>
       </c>
       <c r="X15" t="n">
-        <v>46.14628940482794</v>
+        <v>80.55178238892537</v>
       </c>
       <c r="Y15" t="n">
-        <v>46.05599997865482</v>
+        <v>80.46149296275226</v>
       </c>
     </row>
     <row r="16">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.20528438328776</v>
+        <v>54.6107773673852</v>
       </c>
       <c r="C16" t="n">
-        <v>7.620125299978298</v>
+        <v>42.02561828407573</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>23.39427020366026</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>21.21275983201707</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>20.19984520837914</v>
       </c>
       <c r="G16" t="n">
-        <v>8.07179640442385</v>
+        <v>42.44180910541706</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>34.09004101249829</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>20.36639678067402</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>4.515409482737255</v>
+        <v>37.32557991925856</v>
       </c>
       <c r="S16" t="n">
-        <v>59.29264881219748</v>
+        <v>93.07981722619718</v>
       </c>
       <c r="T16" t="n">
-        <v>67.06917578389442</v>
+        <v>101.3230711947284</v>
       </c>
       <c r="U16" t="n">
-        <v>126.6763797130021</v>
+        <v>161.0799374089303</v>
       </c>
       <c r="V16" t="n">
-        <v>92.51094752517847</v>
+        <v>126.9164405092759</v>
       </c>
       <c r="W16" t="n">
-        <v>126.8963025379415</v>
+        <v>161.3017955220389</v>
       </c>
       <c r="X16" t="n">
-        <v>66.08295959038762</v>
+        <v>100.4884525744851</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.95795755344525</v>
+        <v>93.36345053754269</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.107145864831</v>
+        <v>235.2887760988418</v>
       </c>
       <c r="C17" t="n">
-        <v>205.646195972358</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D17" t="n">
-        <v>195.0563458220334</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E17" t="n">
-        <v>222.3036742736122</v>
+        <v>234.485304507623</v>
       </c>
       <c r="F17" t="n">
-        <v>247.2493499430619</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G17" t="n">
-        <v>255.0239917766588</v>
+        <v>267.1265248057593</v>
       </c>
       <c r="H17" t="n">
-        <v>173.1702998708674</v>
+        <v>184.5418758550912</v>
       </c>
       <c r="I17" t="n">
-        <v>25.71103846658727</v>
+        <v>34.84327370829629</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.53478578379472</v>
+        <v>44.91398846091357</v>
       </c>
       <c r="T17" t="n">
-        <v>60.61480515389042</v>
+        <v>72.45018737340666</v>
       </c>
       <c r="U17" t="n">
-        <v>91.66679311400082</v>
+        <v>103.8420955716188</v>
       </c>
       <c r="V17" t="n">
-        <v>168.1255626714854</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W17" t="n">
-        <v>189.6142729187635</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X17" t="n">
-        <v>210.1044048798195</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y17" t="n">
-        <v>226.6112428574041</v>
+        <v>238.7928730914148</v>
       </c>
     </row>
     <row r="18">
@@ -23808,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.906487851217804</v>
+        <v>19.08811808522859</v>
       </c>
       <c r="C18" t="n">
-        <v>13.0818031896662</v>
+        <v>25.26343342367699</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10.20001489076219</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23859,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>5.576229225730117</v>
+        <v>16.97177035719167</v>
       </c>
       <c r="T18" t="n">
-        <v>39.13181184610784</v>
+        <v>51.14285981677912</v>
       </c>
       <c r="U18" t="n">
-        <v>66.29173381687266</v>
+        <v>78.4705797919606</v>
       </c>
       <c r="V18" t="n">
-        <v>73.17389135077573</v>
+        <v>85.35552158478652</v>
       </c>
       <c r="W18" t="n">
-        <v>92.06828736227007</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X18" t="n">
-        <v>46.14628940482794</v>
+        <v>58.32791963883872</v>
       </c>
       <c r="Y18" t="n">
-        <v>46.05599997865482</v>
+        <v>58.23763021266561</v>
       </c>
     </row>
     <row r="19">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.20528438328776</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="C19" t="n">
-        <v>7.620125299978298</v>
+        <v>19.80175553398908</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.170407453573603</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>8.07179640442385</v>
+        <v>20.21794635533041</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>11.86617826241164</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4.515409482737283</v>
+        <v>15.10171716917191</v>
       </c>
       <c r="S19" t="n">
-        <v>59.29264881219748</v>
+        <v>70.85595447611053</v>
       </c>
       <c r="T19" t="n">
-        <v>67.06917578389442</v>
+        <v>79.09920844464179</v>
       </c>
       <c r="U19" t="n">
-        <v>126.6763797130021</v>
+        <v>138.8560746588436</v>
       </c>
       <c r="V19" t="n">
-        <v>92.51094752517847</v>
+        <v>104.6925777591892</v>
       </c>
       <c r="W19" t="n">
-        <v>126.8963025379415</v>
+        <v>139.0779327719522</v>
       </c>
       <c r="X19" t="n">
-        <v>66.08295959038762</v>
+        <v>78.2645898243984</v>
       </c>
       <c r="Y19" t="n">
-        <v>58.95795755344525</v>
+        <v>71.13958778745604</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.107145864831</v>
+        <v>235.2887760988418</v>
       </c>
       <c r="C20" t="n">
-        <v>205.646195972358</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D20" t="n">
-        <v>195.0563458220334</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E20" t="n">
-        <v>222.3036742736122</v>
+        <v>234.485304507623</v>
       </c>
       <c r="F20" t="n">
-        <v>247.2493499430619</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G20" t="n">
-        <v>255.0239917766588</v>
+        <v>267.1265248057593</v>
       </c>
       <c r="H20" t="n">
-        <v>173.1702998708674</v>
+        <v>184.5418758550912</v>
       </c>
       <c r="I20" t="n">
-        <v>25.71103846658727</v>
+        <v>34.84327370829629</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.53478578379472</v>
+        <v>44.91398846091357</v>
       </c>
       <c r="T20" t="n">
-        <v>60.61480515389042</v>
+        <v>72.45018737340666</v>
       </c>
       <c r="U20" t="n">
-        <v>91.66679311400082</v>
+        <v>103.8420955716188</v>
       </c>
       <c r="V20" t="n">
-        <v>168.1255626714854</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W20" t="n">
-        <v>189.6142729187635</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X20" t="n">
-        <v>210.1044048798195</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y20" t="n">
-        <v>226.6112428574041</v>
+        <v>238.7928730914148</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.906487851217804</v>
+        <v>19.08811808522859</v>
       </c>
       <c r="C21" t="n">
-        <v>13.0818031896662</v>
+        <v>25.26343342367699</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>10.20001489076219</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>5.576229225730117</v>
+        <v>16.97177035719167</v>
       </c>
       <c r="T21" t="n">
-        <v>39.13181184610784</v>
+        <v>51.14285981677912</v>
       </c>
       <c r="U21" t="n">
-        <v>66.29173381687266</v>
+        <v>78.4705797919606</v>
       </c>
       <c r="V21" t="n">
-        <v>73.17389135077573</v>
+        <v>85.35552158478652</v>
       </c>
       <c r="W21" t="n">
-        <v>92.06828736227007</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X21" t="n">
-        <v>46.14628940482794</v>
+        <v>58.32791963883872</v>
       </c>
       <c r="Y21" t="n">
-        <v>46.05599997865482</v>
+        <v>58.23763021266561</v>
       </c>
     </row>
     <row r="22">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.20528438328776</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="C22" t="n">
-        <v>7.620125299978298</v>
+        <v>19.80175553398908</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.170407453573603</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>8.07179640442385</v>
+        <v>20.21794635533041</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>11.86617826241164</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>4.515409482737283</v>
+        <v>15.10171716917191</v>
       </c>
       <c r="S22" t="n">
-        <v>59.29264881219748</v>
+        <v>70.85595447611053</v>
       </c>
       <c r="T22" t="n">
-        <v>67.06917578389442</v>
+        <v>79.09920844464179</v>
       </c>
       <c r="U22" t="n">
-        <v>126.6763797130021</v>
+        <v>138.8560746588436</v>
       </c>
       <c r="V22" t="n">
-        <v>92.51094752517847</v>
+        <v>104.6925777591892</v>
       </c>
       <c r="W22" t="n">
-        <v>126.8963025379415</v>
+        <v>139.0779327719522</v>
       </c>
       <c r="X22" t="n">
-        <v>66.08295959038762</v>
+        <v>78.2645898243984</v>
       </c>
       <c r="Y22" t="n">
-        <v>58.95795755344525</v>
+        <v>71.13958778745604</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.107145864831</v>
+        <v>235.2887760988418</v>
       </c>
       <c r="C23" t="n">
-        <v>205.646195972358</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D23" t="n">
-        <v>195.0563458220334</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E23" t="n">
-        <v>222.3036742736122</v>
+        <v>234.485304507623</v>
       </c>
       <c r="F23" t="n">
-        <v>247.2493499430619</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G23" t="n">
-        <v>255.0239917766588</v>
+        <v>267.1265248057593</v>
       </c>
       <c r="H23" t="n">
-        <v>173.1702998708674</v>
+        <v>184.5418758550912</v>
       </c>
       <c r="I23" t="n">
-        <v>25.71103846658727</v>
+        <v>34.84327370829629</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.53478578379472</v>
+        <v>44.91398846091357</v>
       </c>
       <c r="T23" t="n">
-        <v>60.61480515389042</v>
+        <v>72.45018737340666</v>
       </c>
       <c r="U23" t="n">
-        <v>91.66679311400082</v>
+        <v>103.8420955716188</v>
       </c>
       <c r="V23" t="n">
-        <v>168.1255626714854</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W23" t="n">
-        <v>189.6142729187635</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X23" t="n">
-        <v>210.1044048798195</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y23" t="n">
-        <v>226.6112428574041</v>
+        <v>238.7928730914148</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.906487851217804</v>
+        <v>19.08811808522859</v>
       </c>
       <c r="C24" t="n">
-        <v>13.0818031896662</v>
+        <v>25.26343342367699</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>10.20001489076219</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>5.576229225730117</v>
+        <v>16.97177035719167</v>
       </c>
       <c r="T24" t="n">
-        <v>39.13181184610784</v>
+        <v>51.14285981677912</v>
       </c>
       <c r="U24" t="n">
-        <v>66.29173381687266</v>
+        <v>78.4705797919606</v>
       </c>
       <c r="V24" t="n">
-        <v>73.17389135077573</v>
+        <v>85.35552158478652</v>
       </c>
       <c r="W24" t="n">
-        <v>92.06828736227007</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X24" t="n">
-        <v>46.14628940482794</v>
+        <v>58.32791963883872</v>
       </c>
       <c r="Y24" t="n">
-        <v>46.05599997865482</v>
+        <v>58.23763021266561</v>
       </c>
     </row>
     <row r="25">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.20528438328776</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="C25" t="n">
-        <v>7.620125299978298</v>
+        <v>19.80175553398908</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.170407453573603</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>8.07179640442385</v>
+        <v>20.21794635533041</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>11.86617826241164</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4.515409482737283</v>
+        <v>15.10171716917191</v>
       </c>
       <c r="S25" t="n">
-        <v>59.29264881219748</v>
+        <v>70.85595447611053</v>
       </c>
       <c r="T25" t="n">
-        <v>67.06917578389442</v>
+        <v>79.09920844464179</v>
       </c>
       <c r="U25" t="n">
-        <v>126.6763797130021</v>
+        <v>138.8560746588436</v>
       </c>
       <c r="V25" t="n">
-        <v>92.51094752517847</v>
+        <v>104.6925777591892</v>
       </c>
       <c r="W25" t="n">
-        <v>126.8963025379415</v>
+        <v>139.0779327719522</v>
       </c>
       <c r="X25" t="n">
-        <v>66.08295959038762</v>
+        <v>78.2645898243984</v>
       </c>
       <c r="Y25" t="n">
-        <v>58.95795755344525</v>
+        <v>71.13958778745604</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>273.8240557549702</v>
+        <v>278.7926455529126</v>
       </c>
       <c r="C26" t="n">
-        <v>256.3631058624972</v>
+        <v>261.3316956604397</v>
       </c>
       <c r="D26" t="n">
-        <v>245.7732557121726</v>
+        <v>250.741845510115</v>
       </c>
       <c r="E26" t="n">
-        <v>273.0205841637514</v>
+        <v>277.9891739616938</v>
       </c>
       <c r="F26" t="n">
-        <v>297.9662598332011</v>
+        <v>302.9348496311435</v>
       </c>
       <c r="G26" t="n">
-        <v>305.740901666798</v>
+        <v>310.6303942598302</v>
       </c>
       <c r="H26" t="n">
-        <v>223.8872097610065</v>
+        <v>228.0457453091621</v>
       </c>
       <c r="I26" t="n">
-        <v>76.42794835672646</v>
+        <v>78.34714316236713</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>85.25169567393391</v>
+        <v>88.41785791498441</v>
       </c>
       <c r="T26" t="n">
-        <v>111.3317150440296</v>
+        <v>115.9540568274775</v>
       </c>
       <c r="U26" t="n">
-        <v>142.38370300414</v>
+        <v>147.3459650256896</v>
       </c>
       <c r="V26" t="n">
-        <v>218.8424725616246</v>
+        <v>223.811062359567</v>
       </c>
       <c r="W26" t="n">
-        <v>240.3311828089027</v>
+        <v>245.2997726068451</v>
       </c>
       <c r="X26" t="n">
-        <v>260.8213147699587</v>
+        <v>265.7899045679011</v>
       </c>
       <c r="Y26" t="n">
-        <v>277.3281527475432</v>
+        <v>282.2967425454857</v>
       </c>
     </row>
     <row r="27">
@@ -24519,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>57.623397741357</v>
+        <v>62.59198753929942</v>
       </c>
       <c r="C27" t="n">
-        <v>63.7987130798054</v>
+        <v>68.76730287774782</v>
       </c>
       <c r="D27" t="n">
-        <v>38.53527965612841</v>
+        <v>43.50386945407084</v>
       </c>
       <c r="E27" t="n">
-        <v>48.7352945468906</v>
+        <v>53.70388434483303</v>
       </c>
       <c r="F27" t="n">
-        <v>36.15942648487353</v>
+        <v>41.12801628281596</v>
       </c>
       <c r="G27" t="n">
-        <v>28.08485377982038</v>
+        <v>33.01112284213559</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>4.516096987609714</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24570,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>56.29313911586931</v>
+        <v>60.47563981126251</v>
       </c>
       <c r="T27" t="n">
-        <v>89.84872173624703</v>
+        <v>94.64672927084996</v>
       </c>
       <c r="U27" t="n">
-        <v>117.0086437070119</v>
+        <v>121.9744492460314</v>
       </c>
       <c r="V27" t="n">
-        <v>123.8908012409149</v>
+        <v>128.8593910388574</v>
       </c>
       <c r="W27" t="n">
-        <v>142.7851972524093</v>
+        <v>147.7537870503517</v>
       </c>
       <c r="X27" t="n">
-        <v>96.86319929496713</v>
+        <v>101.8317890929096</v>
       </c>
       <c r="Y27" t="n">
-        <v>96.77290986879402</v>
+        <v>101.7414996667364</v>
       </c>
     </row>
     <row r="28">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70.92219427342695</v>
+        <v>75.89078407136938</v>
       </c>
       <c r="C28" t="n">
-        <v>58.33703519011749</v>
+        <v>63.30562498805992</v>
       </c>
       <c r="D28" t="n">
-        <v>39.70568710970201</v>
+        <v>44.67427690764444</v>
       </c>
       <c r="E28" t="n">
-        <v>37.52417673805883</v>
+        <v>42.49276653600126</v>
       </c>
       <c r="F28" t="n">
-        <v>36.5112621144209</v>
+        <v>41.47985191236333</v>
       </c>
       <c r="G28" t="n">
-        <v>58.78870629456304</v>
+        <v>63.72181580940125</v>
       </c>
       <c r="H28" t="n">
-        <v>50.71690989013919</v>
+        <v>55.37004771648247</v>
       </c>
       <c r="I28" t="n">
-        <v>37.74480256406756</v>
+        <v>41.64640348465821</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.23231937287647</v>
+        <v>58.60558662324274</v>
       </c>
       <c r="S28" t="n">
-        <v>110.0095587023367</v>
+        <v>114.3598239301814</v>
       </c>
       <c r="T28" t="n">
-        <v>117.7860856740336</v>
+        <v>122.6030778987126</v>
       </c>
       <c r="U28" t="n">
-        <v>177.3932896031413</v>
+        <v>182.3599441129145</v>
       </c>
       <c r="V28" t="n">
-        <v>143.2278574153177</v>
+        <v>148.1964472132601</v>
       </c>
       <c r="W28" t="n">
-        <v>177.6132124280807</v>
+        <v>182.5818022260231</v>
       </c>
       <c r="X28" t="n">
-        <v>116.7998694805268</v>
+        <v>121.7684592784692</v>
       </c>
       <c r="Y28" t="n">
-        <v>109.6748674435844</v>
+        <v>114.6434572415269</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>215.0353494604072</v>
+        <v>278.7926455529126</v>
       </c>
       <c r="C29" t="n">
-        <v>197.5743995679342</v>
+        <v>261.3316956604397</v>
       </c>
       <c r="D29" t="n">
-        <v>186.9845494176096</v>
+        <v>250.741845510115</v>
       </c>
       <c r="E29" t="n">
-        <v>214.2318778691884</v>
+        <v>277.9891739616938</v>
       </c>
       <c r="F29" t="n">
-        <v>239.1775535386381</v>
+        <v>302.9348496311435</v>
       </c>
       <c r="G29" t="n">
-        <v>246.9521953722349</v>
+        <v>310.6303942598302</v>
       </c>
       <c r="H29" t="n">
-        <v>165.0985034664435</v>
+        <v>228.0457453091621</v>
       </c>
       <c r="I29" t="n">
-        <v>17.63924206216342</v>
+        <v>78.34714316236713</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>26.4629893793709</v>
+        <v>88.41785791498441</v>
       </c>
       <c r="T29" t="n">
-        <v>52.54300874946657</v>
+        <v>115.9540568274775</v>
       </c>
       <c r="U29" t="n">
-        <v>83.59499670957698</v>
+        <v>147.3459650256896</v>
       </c>
       <c r="V29" t="n">
-        <v>160.0537662670615</v>
+        <v>223.811062359567</v>
       </c>
       <c r="W29" t="n">
-        <v>181.5424765143396</v>
+        <v>245.2997726068451</v>
       </c>
       <c r="X29" t="n">
-        <v>202.0326084753956</v>
+        <v>265.7899045679011</v>
       </c>
       <c r="Y29" t="n">
-        <v>218.5394464529802</v>
+        <v>282.2967425454857</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>62.59198753929942</v>
       </c>
       <c r="C30" t="n">
-        <v>5.010006785242354</v>
+        <v>68.76730287774782</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>43.50386945407084</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>53.70388434483303</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>41.12801628281596</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>33.01112284213559</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4.516096987609714</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>60.47563981126251</v>
       </c>
       <c r="T30" t="n">
-        <v>31.06001544168399</v>
+        <v>94.64672927084996</v>
       </c>
       <c r="U30" t="n">
-        <v>58.21993741244881</v>
+        <v>121.9744492460314</v>
       </c>
       <c r="V30" t="n">
-        <v>65.10209494635188</v>
+        <v>128.8593910388574</v>
       </c>
       <c r="W30" t="n">
-        <v>83.99649095784622</v>
+        <v>147.7537870503517</v>
       </c>
       <c r="X30" t="n">
-        <v>38.07449300040409</v>
+        <v>101.8317890929096</v>
       </c>
       <c r="Y30" t="n">
-        <v>37.98420357423097</v>
+        <v>101.7414996667364</v>
       </c>
     </row>
     <row r="31">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12.13348797886391</v>
+        <v>75.89078407136938</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>63.30562498805992</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>44.67427690764444</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>42.49276653600126</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>41.47985191236333</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>63.72181580940125</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>55.37004771648247</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.64640348465821</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>58.60558662324274</v>
       </c>
       <c r="S31" t="n">
-        <v>51.22085240777363</v>
+        <v>114.3598239301814</v>
       </c>
       <c r="T31" t="n">
-        <v>58.99737937947057</v>
+        <v>122.6030778987126</v>
       </c>
       <c r="U31" t="n">
-        <v>118.6045833085783</v>
+        <v>182.3599441129145</v>
       </c>
       <c r="V31" t="n">
-        <v>84.43915112075462</v>
+        <v>148.1964472132601</v>
       </c>
       <c r="W31" t="n">
-        <v>118.8245061335176</v>
+        <v>182.5818022260231</v>
       </c>
       <c r="X31" t="n">
-        <v>58.01116318596377</v>
+        <v>121.7684592784692</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.8861611490214</v>
+        <v>114.6434572415269</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>215.0353494604072</v>
+        <v>225.0887612080796</v>
       </c>
       <c r="C32" t="n">
-        <v>197.5743995679342</v>
+        <v>207.6278113156066</v>
       </c>
       <c r="D32" t="n">
-        <v>186.9845494176096</v>
+        <v>197.037961165282</v>
       </c>
       <c r="E32" t="n">
-        <v>214.2318778691884</v>
+        <v>224.2852896168608</v>
       </c>
       <c r="F32" t="n">
-        <v>239.1775535386381</v>
+        <v>249.2309652863105</v>
       </c>
       <c r="G32" t="n">
-        <v>246.952195372235</v>
+        <v>256.9265099149972</v>
       </c>
       <c r="H32" t="n">
-        <v>165.0985034664435</v>
+        <v>174.341860964329</v>
       </c>
       <c r="I32" t="n">
-        <v>17.63924206216345</v>
+        <v>24.6432588175341</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>26.46298937937092</v>
+        <v>34.71397357015138</v>
       </c>
       <c r="T32" t="n">
-        <v>52.54300874946659</v>
+        <v>62.25017248264447</v>
       </c>
       <c r="U32" t="n">
-        <v>83.594996709577</v>
+        <v>93.64208068085659</v>
       </c>
       <c r="V32" t="n">
-        <v>160.0537662670615</v>
+        <v>170.107178014734</v>
       </c>
       <c r="W32" t="n">
-        <v>181.5424765143397</v>
+        <v>191.5958882620121</v>
       </c>
       <c r="X32" t="n">
-        <v>202.0326084753957</v>
+        <v>212.0860202230681</v>
       </c>
       <c r="Y32" t="n">
-        <v>218.5394464529802</v>
+        <v>228.5928582006526</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>8.888103194466396</v>
       </c>
       <c r="C33" t="n">
-        <v>5.010006785242382</v>
+        <v>15.0634185329148</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>6.771755466429482</v>
       </c>
       <c r="T33" t="n">
-        <v>31.06001544168402</v>
+        <v>40.94284492601693</v>
       </c>
       <c r="U33" t="n">
-        <v>58.21993741244884</v>
+        <v>68.27056490119841</v>
       </c>
       <c r="V33" t="n">
-        <v>65.10209494635191</v>
+        <v>75.15550669402433</v>
       </c>
       <c r="W33" t="n">
-        <v>83.99649095784625</v>
+        <v>94.04990270551866</v>
       </c>
       <c r="X33" t="n">
-        <v>38.07449300040412</v>
+        <v>48.12790474807653</v>
       </c>
       <c r="Y33" t="n">
-        <v>37.984203574231</v>
+        <v>48.03761532190342</v>
       </c>
     </row>
     <row r="34">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12.13348797886394</v>
+        <v>22.18689972653635</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>9.60174064322689</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>10.01793146456822</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.666163371649446</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.901702278409715</v>
       </c>
       <c r="S34" t="n">
-        <v>51.22085240777366</v>
+        <v>60.65593958534834</v>
       </c>
       <c r="T34" t="n">
-        <v>58.9973793794706</v>
+        <v>68.8991935538796</v>
       </c>
       <c r="U34" t="n">
-        <v>118.6045833085783</v>
+        <v>128.6560597680814</v>
       </c>
       <c r="V34" t="n">
-        <v>84.43915112075464</v>
+        <v>94.49256286842706</v>
       </c>
       <c r="W34" t="n">
-        <v>118.8245061335176</v>
+        <v>128.8779178811901</v>
       </c>
       <c r="X34" t="n">
-        <v>58.0111631859638</v>
+        <v>68.06457493363621</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.88616114902143</v>
+        <v>60.93957289669385</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>215.0353494604072</v>
+        <v>225.0887612080796</v>
       </c>
       <c r="C35" t="n">
-        <v>197.5743995679342</v>
+        <v>207.6278113156066</v>
       </c>
       <c r="D35" t="n">
-        <v>186.9845494176096</v>
+        <v>197.037961165282</v>
       </c>
       <c r="E35" t="n">
-        <v>214.2318778691884</v>
+        <v>224.2852896168608</v>
       </c>
       <c r="F35" t="n">
-        <v>239.1775535386381</v>
+        <v>249.2309652863105</v>
       </c>
       <c r="G35" t="n">
-        <v>246.952195372235</v>
+        <v>256.9265099149972</v>
       </c>
       <c r="H35" t="n">
-        <v>165.0985034664435</v>
+        <v>174.341860964329</v>
       </c>
       <c r="I35" t="n">
-        <v>17.63924206216345</v>
+        <v>24.6432588175341</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>26.46298937937092</v>
+        <v>34.71397357015138</v>
       </c>
       <c r="T35" t="n">
-        <v>52.54300874946659</v>
+        <v>62.25017248264447</v>
       </c>
       <c r="U35" t="n">
-        <v>83.594996709577</v>
+        <v>93.64208068085659</v>
       </c>
       <c r="V35" t="n">
-        <v>160.0537662670615</v>
+        <v>170.107178014734</v>
       </c>
       <c r="W35" t="n">
-        <v>181.5424765143397</v>
+        <v>191.5958882620121</v>
       </c>
       <c r="X35" t="n">
-        <v>202.0326084753957</v>
+        <v>212.0860202230681</v>
       </c>
       <c r="Y35" t="n">
-        <v>218.5394464529802</v>
+        <v>228.5928582006526</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>8.888103194466396</v>
       </c>
       <c r="C36" t="n">
-        <v>5.010006785242382</v>
+        <v>15.0634185329148</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>6.771755466429482</v>
       </c>
       <c r="T36" t="n">
-        <v>31.06001544168402</v>
+        <v>40.94284492601693</v>
       </c>
       <c r="U36" t="n">
-        <v>58.21993741244884</v>
+        <v>68.27056490119841</v>
       </c>
       <c r="V36" t="n">
-        <v>65.10209494635191</v>
+        <v>75.15550669402433</v>
       </c>
       <c r="W36" t="n">
-        <v>83.99649095784625</v>
+        <v>94.04990270551866</v>
       </c>
       <c r="X36" t="n">
-        <v>38.07449300040412</v>
+        <v>48.12790474807653</v>
       </c>
       <c r="Y36" t="n">
-        <v>37.984203574231</v>
+        <v>48.03761532190342</v>
       </c>
     </row>
     <row r="37">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12.13348797886394</v>
+        <v>22.18689972653635</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>9.60174064322689</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>10.01793146456822</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.666163371649446</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.901702278409715</v>
       </c>
       <c r="S37" t="n">
-        <v>51.22085240777366</v>
+        <v>60.65593958534834</v>
       </c>
       <c r="T37" t="n">
-        <v>58.9973793794706</v>
+        <v>68.8991935538796</v>
       </c>
       <c r="U37" t="n">
-        <v>118.6045833085783</v>
+        <v>128.6560597680814</v>
       </c>
       <c r="V37" t="n">
-        <v>84.43915112075464</v>
+        <v>94.49256286842706</v>
       </c>
       <c r="W37" t="n">
-        <v>118.8245061335176</v>
+        <v>128.8779178811901</v>
       </c>
       <c r="X37" t="n">
-        <v>58.0111631859638</v>
+        <v>68.06457493363621</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.88616114902143</v>
+        <v>60.93957289669385</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>215.0353494604072</v>
+        <v>225.0887612080796</v>
       </c>
       <c r="C38" t="n">
-        <v>197.5743995679342</v>
+        <v>207.6278113156066</v>
       </c>
       <c r="D38" t="n">
-        <v>186.9845494176096</v>
+        <v>197.037961165282</v>
       </c>
       <c r="E38" t="n">
-        <v>214.2318778691884</v>
+        <v>224.2852896168608</v>
       </c>
       <c r="F38" t="n">
-        <v>239.1775535386381</v>
+        <v>249.2309652863105</v>
       </c>
       <c r="G38" t="n">
-        <v>246.952195372235</v>
+        <v>256.9265099149972</v>
       </c>
       <c r="H38" t="n">
-        <v>165.0985034664435</v>
+        <v>174.341860964329</v>
       </c>
       <c r="I38" t="n">
-        <v>17.63924206216345</v>
+        <v>24.6432588175341</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>26.46298937937092</v>
+        <v>34.71397357015138</v>
       </c>
       <c r="T38" t="n">
-        <v>52.54300874946659</v>
+        <v>62.25017248264447</v>
       </c>
       <c r="U38" t="n">
-        <v>83.594996709577</v>
+        <v>93.64208068085659</v>
       </c>
       <c r="V38" t="n">
-        <v>160.0537662670615</v>
+        <v>170.107178014734</v>
       </c>
       <c r="W38" t="n">
-        <v>181.5424765143397</v>
+        <v>191.5958882620121</v>
       </c>
       <c r="X38" t="n">
-        <v>202.0326084753957</v>
+        <v>212.0860202230681</v>
       </c>
       <c r="Y38" t="n">
-        <v>218.5394464529802</v>
+        <v>228.5928582006526</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>8.888103194466396</v>
       </c>
       <c r="C39" t="n">
-        <v>5.010006785242382</v>
+        <v>15.0634185329148</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>6.771755466429482</v>
       </c>
       <c r="T39" t="n">
-        <v>31.06001544168402</v>
+        <v>40.94284492601693</v>
       </c>
       <c r="U39" t="n">
-        <v>58.21993741244884</v>
+        <v>68.27056490119841</v>
       </c>
       <c r="V39" t="n">
-        <v>65.10209494635191</v>
+        <v>75.15550669402433</v>
       </c>
       <c r="W39" t="n">
-        <v>83.99649095784625</v>
+        <v>94.04990270551866</v>
       </c>
       <c r="X39" t="n">
-        <v>38.07449300040412</v>
+        <v>48.12790474807653</v>
       </c>
       <c r="Y39" t="n">
-        <v>37.984203574231</v>
+        <v>48.03761532190342</v>
       </c>
     </row>
     <row r="40">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.13348797886394</v>
+        <v>22.18689972653635</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>9.60174064322689</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>10.01793146456822</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.666163371649446</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>4.901702278409715</v>
       </c>
       <c r="S40" t="n">
-        <v>51.22085240777366</v>
+        <v>60.65593958534834</v>
       </c>
       <c r="T40" t="n">
-        <v>58.9973793794706</v>
+        <v>68.8991935538796</v>
       </c>
       <c r="U40" t="n">
-        <v>118.6045833085783</v>
+        <v>128.6560597680814</v>
       </c>
       <c r="V40" t="n">
-        <v>84.43915112075464</v>
+        <v>94.49256286842706</v>
       </c>
       <c r="W40" t="n">
-        <v>118.8245061335176</v>
+        <v>128.8779178811901</v>
       </c>
       <c r="X40" t="n">
-        <v>58.0111631859638</v>
+        <v>68.06457493363621</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.88616114902143</v>
+        <v>60.93957289669385</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>273.8240557549702</v>
+        <v>306.8060945685609</v>
       </c>
       <c r="C41" t="n">
-        <v>256.3631058624972</v>
+        <v>289.3451446760879</v>
       </c>
       <c r="D41" t="n">
-        <v>245.7732557121726</v>
+        <v>278.7552945257632</v>
       </c>
       <c r="E41" t="n">
-        <v>273.0205841637514</v>
+        <v>306.0026229773421</v>
       </c>
       <c r="F41" t="n">
-        <v>297.9662598332011</v>
+        <v>330.9482986467917</v>
       </c>
       <c r="G41" t="n">
-        <v>305.740901666798</v>
+        <v>338.6438432754784</v>
       </c>
       <c r="H41" t="n">
-        <v>223.8872097610065</v>
+        <v>256.0591943248103</v>
       </c>
       <c r="I41" t="n">
-        <v>76.42794835672646</v>
+        <v>106.3605921780154</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>28.01344901564823</v>
       </c>
       <c r="S41" t="n">
-        <v>85.25169567393394</v>
+        <v>116.4313069306326</v>
       </c>
       <c r="T41" t="n">
-        <v>111.3317150440296</v>
+        <v>143.9675058431257</v>
       </c>
       <c r="U41" t="n">
-        <v>142.38370300414</v>
+        <v>175.3594140413379</v>
       </c>
       <c r="V41" t="n">
-        <v>218.8424725616246</v>
+        <v>251.8245113752152</v>
       </c>
       <c r="W41" t="n">
-        <v>240.3311828089027</v>
+        <v>273.3132216224933</v>
       </c>
       <c r="X41" t="n">
-        <v>260.8213147699587</v>
+        <v>293.8033535835493</v>
       </c>
       <c r="Y41" t="n">
-        <v>277.3281527475432</v>
+        <v>310.3101915611339</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>57.623397741357</v>
+        <v>90.60543655494766</v>
       </c>
       <c r="C42" t="n">
-        <v>63.7987130798054</v>
+        <v>96.78075189339606</v>
       </c>
       <c r="D42" t="n">
-        <v>38.53527965612841</v>
+        <v>71.51731846971907</v>
       </c>
       <c r="E42" t="n">
-        <v>48.7352945468906</v>
+        <v>81.71733336048126</v>
       </c>
       <c r="F42" t="n">
-        <v>36.15942648487353</v>
+        <v>69.1414652984642</v>
       </c>
       <c r="G42" t="n">
-        <v>28.08485377982038</v>
+        <v>61.02457185778383</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>32.52954600325795</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>56.29313911586931</v>
+        <v>88.48908882691074</v>
       </c>
       <c r="T42" t="n">
-        <v>89.84872173624703</v>
+        <v>122.6601782864982</v>
       </c>
       <c r="U42" t="n">
-        <v>117.0086437070119</v>
+        <v>149.9878982616797</v>
       </c>
       <c r="V42" t="n">
-        <v>123.8908012409149</v>
+        <v>156.8728400545056</v>
       </c>
       <c r="W42" t="n">
-        <v>142.7851972524093</v>
+        <v>175.7672360659999</v>
       </c>
       <c r="X42" t="n">
-        <v>96.86319929496713</v>
+        <v>129.8452381085578</v>
       </c>
       <c r="Y42" t="n">
-        <v>96.77290986879402</v>
+        <v>129.7549486823847</v>
       </c>
     </row>
     <row r="43">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.92219427342695</v>
+        <v>103.9042330870176</v>
       </c>
       <c r="C43" t="n">
-        <v>58.33703519011749</v>
+        <v>91.31907400370815</v>
       </c>
       <c r="D43" t="n">
-        <v>39.70568710970201</v>
+        <v>72.68772592329267</v>
       </c>
       <c r="E43" t="n">
-        <v>37.52417673805883</v>
+        <v>70.50621555164949</v>
       </c>
       <c r="F43" t="n">
-        <v>36.5112621144209</v>
+        <v>69.49330092801156</v>
       </c>
       <c r="G43" t="n">
-        <v>58.78870629456304</v>
+        <v>91.73526482504948</v>
       </c>
       <c r="H43" t="n">
-        <v>50.71690989013922</v>
+        <v>83.38349673213071</v>
       </c>
       <c r="I43" t="n">
-        <v>37.74480256406758</v>
+        <v>69.65985250030644</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>55.23231937287647</v>
+        <v>86.61903563889098</v>
       </c>
       <c r="S43" t="n">
-        <v>110.0095587023367</v>
+        <v>142.3732729458296</v>
       </c>
       <c r="T43" t="n">
-        <v>117.7860856740336</v>
+        <v>150.6165269143609</v>
       </c>
       <c r="U43" t="n">
-        <v>177.3932896031413</v>
+        <v>210.3733931285627</v>
       </c>
       <c r="V43" t="n">
-        <v>143.2278574153177</v>
+        <v>176.2098962289083</v>
       </c>
       <c r="W43" t="n">
-        <v>177.6132124280807</v>
+        <v>210.5952512416713</v>
       </c>
       <c r="X43" t="n">
-        <v>116.7998694805268</v>
+        <v>149.7819082941175</v>
       </c>
       <c r="Y43" t="n">
-        <v>109.6748674435844</v>
+        <v>142.6569062571751</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>306.8060945685609</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>289.3451446760879</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>278.7552945257632</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>306.0026229773421</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>330.9482986467917</v>
       </c>
       <c r="G44" t="n">
-        <v>414.6506875753083</v>
+        <v>338.6438432754784</v>
       </c>
       <c r="H44" t="n">
-        <v>332.7969956695169</v>
+        <v>256.0591943248103</v>
       </c>
       <c r="I44" t="n">
-        <v>185.3377342652368</v>
+        <v>106.3605921780154</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.9097859085103</v>
+        <v>28.01344901564823</v>
       </c>
       <c r="S44" t="n">
-        <v>194.1614815824443</v>
+        <v>116.4313069306326</v>
       </c>
       <c r="T44" t="n">
-        <v>220.24150095254</v>
+        <v>143.9675058431257</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2934889126504</v>
+        <v>175.3594140413379</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>251.8245113752152</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>273.3132216224933</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>293.8033535835493</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>310.3101915611339</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>90.60543655494766</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>96.78075189339606</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>71.51731846971907</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>81.71733336048126</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>69.1414652984642</v>
       </c>
       <c r="G45" t="n">
-        <v>136.9946396883307</v>
+        <v>61.02457185778383</v>
       </c>
       <c r="H45" t="n">
-        <v>108.8660223080509</v>
+        <v>32.52954600325795</v>
       </c>
       <c r="I45" t="n">
-        <v>77.38484259787393</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>78.49682742281784</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.2029250243797</v>
+        <v>88.48908882691074</v>
       </c>
       <c r="T45" t="n">
-        <v>198.7585076447574</v>
+        <v>122.6601782864982</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9184296155222</v>
+        <v>149.9878982616797</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>156.8728400545056</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>175.7672360659999</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>129.8452381085578</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>129.7549486823847</v>
       </c>
     </row>
     <row r="46">
@@ -26020,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>103.9042330870176</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>91.31907400370815</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>72.68772592329267</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>70.50621555164949</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>69.49330092801156</v>
       </c>
       <c r="G46" t="n">
-        <v>167.6984922030734</v>
+        <v>91.73526482504948</v>
       </c>
       <c r="H46" t="n">
-        <v>159.6266957986496</v>
+        <v>83.38349673213071</v>
       </c>
       <c r="I46" t="n">
-        <v>146.6545884725779</v>
+        <v>69.65985250030644</v>
       </c>
       <c r="J46" t="n">
-        <v>72.68033823092634</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.67023244937852</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>164.1421052813868</v>
+        <v>86.61903563889098</v>
       </c>
       <c r="S46" t="n">
-        <v>218.919344610847</v>
+        <v>142.3732729458296</v>
       </c>
       <c r="T46" t="n">
-        <v>226.695871582544</v>
+        <v>150.6165269143609</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3030755116517</v>
+        <v>210.3733931285627</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>176.2098962289083</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>210.5952512416713</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>149.7819082941175</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>142.6569062571751</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>445068.7990231449</v>
+        <v>460537.4641853571</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>508911.8350439597</v>
+        <v>460537.4641853572</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>508911.8350439598</v>
+        <v>490034.5502575844</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>508911.8350439598</v>
+        <v>490034.5502575845</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>508911.8350439598</v>
+        <v>490034.5502575845</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>444253.0835418275</v>
+        <v>431136.2082901499</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>516337.8377261386</v>
+        <v>431136.2082901499</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>516337.8377261386</v>
+        <v>500850.8036810085</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>516337.8377261386</v>
+        <v>500850.8036810085</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>516337.8377261386</v>
+        <v>500850.8036810085</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>444253.0835418275</v>
+        <v>387999.978957894</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262784.7215085034</v>
+        <v>387999.978957894</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>757830.6133132603</v>
       </c>
       <c r="D2" t="n">
-        <v>757830.6133132603</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="E2" t="n">
-        <v>448332.3248056232</v>
+        <v>479856.3168138926</v>
       </c>
       <c r="F2" t="n">
-        <v>543891.5620997858</v>
+        <v>479856.3168138926</v>
       </c>
       <c r="G2" t="n">
-        <v>543891.5620997857</v>
+        <v>523013.1148365915</v>
       </c>
       <c r="H2" t="n">
-        <v>543891.5620997857</v>
+        <v>523013.1148365915</v>
       </c>
       <c r="I2" t="n">
-        <v>543891.5620997855</v>
+        <v>523013.1148365916</v>
       </c>
       <c r="J2" t="n">
-        <v>447158.8311183612</v>
+        <v>437768.0094864759</v>
       </c>
       <c r="K2" t="n">
-        <v>557394.2145810605</v>
+        <v>437768.0094864757</v>
       </c>
       <c r="L2" t="n">
-        <v>557394.2145810607</v>
+        <v>541022.2341352191</v>
       </c>
       <c r="M2" t="n">
-        <v>557394.2145810607</v>
+        <v>541022.234135219</v>
       </c>
       <c r="N2" t="n">
-        <v>557394.2145810605</v>
+        <v>541022.2341352192</v>
       </c>
       <c r="O2" t="n">
-        <v>447158.8311183612</v>
+        <v>379433.9237942506</v>
       </c>
       <c r="P2" t="n">
-        <v>211274.903975011</v>
+        <v>379433.9237942505</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>217914.3888021524</v>
+        <v>246294.1573705106</v>
       </c>
       <c r="F3" t="n">
-        <v>40096.86369115785</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>17779.09020006932</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47030.96503565042</v>
+        <v>65373.86668838501</v>
       </c>
       <c r="K3" t="n">
-        <v>87127.82872680828</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>60742.19767593574</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>220411.0015594487</v>
+        <v>232908.2080359313</v>
       </c>
       <c r="F4" t="n">
-        <v>279217.9662203439</v>
+        <v>232908.2080359313</v>
       </c>
       <c r="G4" t="n">
-        <v>279217.9662203439</v>
+        <v>259471.704368125</v>
       </c>
       <c r="H4" t="n">
-        <v>279217.966220344</v>
+        <v>259471.704368125</v>
       </c>
       <c r="I4" t="n">
-        <v>279217.966220344</v>
+        <v>259471.704368125</v>
       </c>
       <c r="J4" t="n">
-        <v>219688.6024740375</v>
+        <v>206997.7090778679</v>
       </c>
       <c r="K4" t="n">
-        <v>287515.7291647886</v>
+        <v>206997.7090778679</v>
       </c>
       <c r="L4" t="n">
-        <v>287515.7291647885</v>
+        <v>270545.5316493991</v>
       </c>
       <c r="M4" t="n">
-        <v>287515.7291647885</v>
+        <v>270545.5316493991</v>
       </c>
       <c r="N4" t="n">
-        <v>287515.7291647886</v>
+        <v>270545.5316493991</v>
       </c>
       <c r="O4" t="n">
-        <v>219688.6024740376</v>
+        <v>171068.3802619749</v>
       </c>
       <c r="P4" t="n">
-        <v>74350.34769295299</v>
+        <v>171068.3802619749</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>12741.93145822701</v>
+        <v>14492.04947853882</v>
       </c>
       <c r="F5" t="n">
-        <v>16955.56050029194</v>
+        <v>14492.04947853882</v>
       </c>
       <c r="G5" t="n">
-        <v>16955.56050029194</v>
+        <v>16360.38739607585</v>
       </c>
       <c r="H5" t="n">
-        <v>16955.56050029194</v>
+        <v>16360.38739607585</v>
       </c>
       <c r="I5" t="n">
-        <v>16955.56050029194</v>
+        <v>16360.38739607585</v>
       </c>
       <c r="J5" t="n">
-        <v>12691.84060273783</v>
+        <v>12703.06059494157</v>
       </c>
       <c r="K5" t="n">
-        <v>17634.14835221545</v>
+        <v>12703.06059494157</v>
       </c>
       <c r="L5" t="n">
-        <v>17634.14835221544</v>
+        <v>17217.89244792734</v>
       </c>
       <c r="M5" t="n">
-        <v>17634.14835221544</v>
+        <v>17217.89244792734</v>
       </c>
       <c r="N5" t="n">
-        <v>17634.14835221544</v>
+        <v>17217.89244792734</v>
       </c>
       <c r="O5" t="n">
-        <v>12691.84060273783</v>
+        <v>10347.99794964504</v>
       </c>
       <c r="P5" t="n">
-        <v>3535.903811195271</v>
+        <v>10347.99794964504</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>256587.053381529</v>
       </c>
       <c r="D6" t="n">
-        <v>256587.053381529</v>
+        <v>256587.0533815291</v>
       </c>
       <c r="E6" t="n">
-        <v>-2734.997014204902</v>
+        <v>-13838.09807108822</v>
       </c>
       <c r="F6" t="n">
-        <v>207621.1716879921</v>
+        <v>232456.0592994225</v>
       </c>
       <c r="G6" t="n">
-        <v>247718.0353791498</v>
+        <v>229401.9328723214</v>
       </c>
       <c r="H6" t="n">
-        <v>247718.0353791498</v>
+        <v>247181.0230723906</v>
       </c>
       <c r="I6" t="n">
-        <v>247718.0353791497</v>
+        <v>247181.0230723907</v>
       </c>
       <c r="J6" t="n">
-        <v>167747.4230059354</v>
+        <v>152693.3731252814</v>
       </c>
       <c r="K6" t="n">
-        <v>165116.5083372481</v>
+        <v>218067.2398136662</v>
       </c>
       <c r="L6" t="n">
-        <v>252244.3370640568</v>
+        <v>192516.6123619569</v>
       </c>
       <c r="M6" t="n">
-        <v>252244.3370640568</v>
+        <v>253258.8100378926</v>
       </c>
       <c r="N6" t="n">
-        <v>252244.3370640565</v>
+        <v>253258.8100378928</v>
       </c>
       <c r="O6" t="n">
-        <v>214778.3880415858</v>
+        <v>198017.5455826307</v>
       </c>
       <c r="P6" t="n">
-        <v>133388.6524708627</v>
+        <v>198017.5455826306</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="F2" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="G2" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H2" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I2" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J2" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="K2" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="L2" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="M2" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="N2" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="O2" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>162.1974225318933</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="F3" t="n">
-        <v>162.1974225318933</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="G3" t="n">
-        <v>162.1974225318932</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="H3" t="n">
-        <v>162.1974225318932</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="I3" t="n">
-        <v>162.1974225318932</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="J3" t="n">
-        <v>162.1974225318932</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="K3" t="n">
-        <v>162.1974225318932</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="L3" t="n">
-        <v>162.1974225318932</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="M3" t="n">
-        <v>162.1974225318932</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="N3" t="n">
-        <v>162.1974225318932</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="O3" t="n">
-        <v>162.1974225318932</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="P3" t="n">
-        <v>162.1974225318932</v>
+        <v>181.8728522533136</v>
       </c>
     </row>
     <row r="4">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="F2" t="n">
-        <v>50.12107961394732</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>22.22386275008665</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>58.78870629456303</v>
+        <v>81.71733336048126</v>
       </c>
       <c r="K2" t="n">
-        <v>108.9097859085103</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>162.1974225318933</v>
+        <v>181.8728522533136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="K2" t="n">
-        <v>50.12107961394732</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>22.22386275008665</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>58.78870629456303</v>
+        <v>81.71733336048126</v>
       </c>
       <c r="P2" t="n">
-        <v>108.9097859085103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,37 +28089,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="C11" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="D11" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="E11" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="F11" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="G11" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="H11" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="I11" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="J11" t="n">
-        <v>109.5056161847022</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>15.20305707159616</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28129,34 +28131,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>32.62493560690792</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="R11" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="S11" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="T11" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="U11" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="V11" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="W11" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="X11" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="Y11" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28168,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="C12" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="D12" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="E12" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="F12" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="G12" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="H12" t="n">
-        <v>108.8660223080509</v>
+        <v>108.4572930981776</v>
       </c>
       <c r="I12" t="n">
-        <v>87.51058974645885</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J12" t="n">
-        <v>93.87635611233166</v>
+        <v>89.8779746818683</v>
       </c>
       <c r="K12" t="n">
-        <v>81.50537760306923</v>
+        <v>74.67150688558306</v>
       </c>
       <c r="L12" t="n">
-        <v>62.80359296438949</v>
+        <v>53.61461043270161</v>
       </c>
       <c r="M12" t="n">
-        <v>53.73643864213651</v>
+        <v>43.01332944396241</v>
       </c>
       <c r="N12" t="n">
-        <v>40.60449549164709</v>
+        <v>29.59757750060457</v>
       </c>
       <c r="O12" t="n">
-        <v>59.58941821720279</v>
+        <v>49.52023863137364</v>
       </c>
       <c r="P12" t="n">
-        <v>67.35411135590034</v>
+        <v>59.27270702371921</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.44787045047225</v>
+        <v>90.04566567111169</v>
       </c>
       <c r="R12" t="n">
-        <v>109.5056161847022</v>
+        <v>121.3908992800214</v>
       </c>
       <c r="S12" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="T12" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="U12" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="V12" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="W12" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="X12" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="Y12" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="C13" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="D13" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="E13" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="F13" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="G13" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="H13" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="I13" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="J13" t="n">
-        <v>106.3165795536497</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K13" t="n">
-        <v>95.03156866303382</v>
+        <v>90.90940486238215</v>
       </c>
       <c r="L13" t="n">
-        <v>91.39981319785169</v>
+        <v>86.1248627443417</v>
       </c>
       <c r="M13" t="n">
-        <v>93.07709285387662</v>
+        <v>87.51539720327905</v>
       </c>
       <c r="N13" t="n">
-        <v>82.92703276885022</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O13" t="n">
-        <v>97.11480852518906</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P13" t="n">
-        <v>102.3530120923557</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q13" t="n">
-        <v>109.5056161847022</v>
+        <v>124.0422009391955</v>
       </c>
       <c r="R13" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="S13" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="T13" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="U13" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="V13" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="W13" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="X13" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.5056161847022</v>
+        <v>125.2212028145521</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28326,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="C14" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="E14" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="F14" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="G14" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="H14" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="I14" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="J14" t="n">
-        <v>125.7039809463193</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28360,40 +28362,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>98.952650693317</v>
       </c>
       <c r="O14" t="n">
-        <v>120.2351321227097</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>130.9854775911686</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.8916319349882</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="R14" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="S14" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="T14" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="U14" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="V14" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="W14" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="X14" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="Y14" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
     </row>
     <row r="15">
@@ -28403,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="C15" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="G15" t="n">
-        <v>136.9946396883307</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="H15" t="n">
-        <v>108.8660223080509</v>
+        <v>108.4572930981776</v>
       </c>
       <c r="I15" t="n">
-        <v>87.51058974645885</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J15" t="n">
-        <v>93.87635611233166</v>
+        <v>89.8779746818683</v>
       </c>
       <c r="K15" t="n">
-        <v>81.50537760306923</v>
+        <v>74.67150688558306</v>
       </c>
       <c r="L15" t="n">
-        <v>62.80359296438949</v>
+        <v>1.704618299952806</v>
       </c>
       <c r="M15" t="n">
-        <v>53.73643864213651</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>40.60449549164709</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>59.58941821720279</v>
+        <v>49.52023863137364</v>
       </c>
       <c r="P15" t="n">
-        <v>67.35411135590034</v>
+        <v>59.27270702371921</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.44787045047225</v>
+        <v>90.04566567111169</v>
       </c>
       <c r="R15" t="n">
-        <v>124.0184972341386</v>
+        <v>121.3908992800214</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="T15" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="U15" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="V15" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="W15" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="X15" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="Y15" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="C16" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="G16" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="H16" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="I16" t="n">
-        <v>146.6545884725779</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="J16" t="n">
-        <v>106.3165795536497</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K16" t="n">
-        <v>95.03156866303382</v>
+        <v>90.90940486238215</v>
       </c>
       <c r="L16" t="n">
-        <v>91.39981319785169</v>
+        <v>86.1248627443417</v>
       </c>
       <c r="M16" t="n">
-        <v>93.07709285387662</v>
+        <v>87.51539720327905</v>
       </c>
       <c r="N16" t="n">
-        <v>82.92703276885022</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O16" t="n">
-        <v>97.11480852518906</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P16" t="n">
-        <v>102.3530120923557</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.01319082713</v>
+        <v>124.0422009391955</v>
       </c>
       <c r="R16" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="S16" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="T16" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="U16" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="V16" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="W16" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="X16" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
       <c r="Y16" t="n">
-        <v>159.6266957986495</v>
+        <v>125.2212028145521</v>
       </c>
     </row>
     <row r="17">
@@ -28561,40 +28563,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C17" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D17" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E17" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F17" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G17" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H17" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I17" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J17" t="n">
-        <v>125.7039809463193</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K17" t="n">
-        <v>135.3686404832006</v>
+        <v>62.68584065349048</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>115.8519692306766</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,34 +28605,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>126.0931224081668</v>
       </c>
       <c r="Q17" t="n">
-        <v>151.8916319349883</v>
+        <v>143.3500236482383</v>
       </c>
       <c r="R17" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S17" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T17" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U17" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V17" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W17" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X17" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y17" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="18">
@@ -28640,76 +28642,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C18" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.9946396883307</v>
+        <v>136.9523189527035</v>
       </c>
       <c r="H18" t="n">
-        <v>108.8660223080509</v>
+        <v>108.4572930981776</v>
       </c>
       <c r="I18" t="n">
-        <v>87.51058974645885</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J18" t="n">
-        <v>93.87635611233168</v>
+        <v>89.8779746818683</v>
       </c>
       <c r="K18" t="n">
-        <v>81.50537760306925</v>
+        <v>74.67150688558306</v>
       </c>
       <c r="L18" t="n">
-        <v>62.80359296438952</v>
+        <v>53.61461043270161</v>
       </c>
       <c r="M18" t="n">
-        <v>53.73643864213653</v>
+        <v>43.01332944396241</v>
       </c>
       <c r="N18" t="n">
-        <v>40.60449549164711</v>
+        <v>29.59757750060457</v>
       </c>
       <c r="O18" t="n">
-        <v>59.58941821720282</v>
+        <v>49.52023863137364</v>
       </c>
       <c r="P18" t="n">
-        <v>67.35411135590036</v>
+        <v>59.27270702371921</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.44787045047227</v>
+        <v>90.04566567111169</v>
       </c>
       <c r="R18" t="n">
-        <v>124.0184972341387</v>
+        <v>121.3908992800214</v>
       </c>
       <c r="S18" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T18" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U18" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V18" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W18" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X18" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y18" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="19">
@@ -28719,13 +28721,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C19" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -28734,61 +28736,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H19" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I19" t="n">
-        <v>146.6545884725779</v>
+        <v>145.5875995952261</v>
       </c>
       <c r="J19" t="n">
-        <v>106.3165795536497</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K19" t="n">
-        <v>95.03156866303382</v>
+        <v>90.90940486238215</v>
       </c>
       <c r="L19" t="n">
-        <v>91.3998131978517</v>
+        <v>86.1248627443417</v>
       </c>
       <c r="M19" t="n">
-        <v>93.07709285387662</v>
+        <v>87.51539720327905</v>
       </c>
       <c r="N19" t="n">
-        <v>82.92703276885024</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O19" t="n">
-        <v>97.11480852518908</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P19" t="n">
-        <v>102.3530120923557</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.01319082713</v>
+        <v>124.0422009391955</v>
       </c>
       <c r="R19" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S19" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T19" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U19" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V19" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W19" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X19" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y19" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="20">
@@ -28798,43 +28800,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C20" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D20" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E20" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F20" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G20" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H20" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I20" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J20" t="n">
-        <v>125.7039809463193</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K20" t="n">
-        <v>137.1466535117492</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>89.8263123683401</v>
       </c>
       <c r="M20" t="n">
-        <v>1.007793493666154</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>113.0661627084621</v>
+        <v>98.952650693317</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28843,31 +28845,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>151.8916319349883</v>
+        <v>143.3500236482383</v>
       </c>
       <c r="R20" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S20" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T20" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U20" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V20" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W20" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X20" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y20" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="21">
@@ -28877,76 +28879,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C21" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.9946396883307</v>
+        <v>136.9523189527035</v>
       </c>
       <c r="H21" t="n">
-        <v>108.8660223080509</v>
+        <v>108.4572930981776</v>
       </c>
       <c r="I21" t="n">
-        <v>87.51058974645885</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J21" t="n">
-        <v>93.87635611233168</v>
+        <v>89.8779746818683</v>
       </c>
       <c r="K21" t="n">
-        <v>81.50537760306925</v>
+        <v>74.67150688558306</v>
       </c>
       <c r="L21" t="n">
-        <v>62.80359296438952</v>
+        <v>53.61461043270161</v>
       </c>
       <c r="M21" t="n">
-        <v>53.73643864213653</v>
+        <v>43.01332944396241</v>
       </c>
       <c r="N21" t="n">
-        <v>40.60449549164711</v>
+        <v>29.59757750060457</v>
       </c>
       <c r="O21" t="n">
-        <v>59.58941821720282</v>
+        <v>49.52023863137364</v>
       </c>
       <c r="P21" t="n">
-        <v>67.35411135590036</v>
+        <v>59.27270702371921</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.44787045047227</v>
+        <v>90.04566567111169</v>
       </c>
       <c r="R21" t="n">
-        <v>124.0184972341387</v>
+        <v>121.3908992800214</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T21" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U21" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V21" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W21" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X21" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y21" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="22">
@@ -28956,13 +28958,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C22" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -28971,61 +28973,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H22" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I22" t="n">
-        <v>146.6545884725779</v>
+        <v>145.5875995952261</v>
       </c>
       <c r="J22" t="n">
-        <v>106.3165795536497</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K22" t="n">
-        <v>95.03156866303382</v>
+        <v>90.90940486238215</v>
       </c>
       <c r="L22" t="n">
-        <v>91.3998131978517</v>
+        <v>86.1248627443417</v>
       </c>
       <c r="M22" t="n">
-        <v>93.07709285387662</v>
+        <v>87.51539720327905</v>
       </c>
       <c r="N22" t="n">
-        <v>82.92703276885024</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O22" t="n">
-        <v>97.11480852518908</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P22" t="n">
-        <v>102.3530120923557</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.01319082713</v>
+        <v>124.0422009391955</v>
       </c>
       <c r="R22" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S22" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T22" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U22" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V22" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W22" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X22" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y22" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="23">
@@ -29035,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C23" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D23" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E23" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F23" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G23" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H23" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I23" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J23" t="n">
-        <v>125.7039809463193</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L23" t="n">
-        <v>132.8680440907843</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>115.8519692306766</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>30.56404147398698</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>126.0931224081668</v>
       </c>
       <c r="Q23" t="n">
-        <v>151.8916319349883</v>
+        <v>75.53127472110366</v>
       </c>
       <c r="R23" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S23" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T23" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U23" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V23" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W23" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X23" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y23" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="24">
@@ -29114,76 +29116,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C24" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.9946396883307</v>
+        <v>136.9523189527035</v>
       </c>
       <c r="H24" t="n">
-        <v>108.8660223080509</v>
+        <v>108.4572930981776</v>
       </c>
       <c r="I24" t="n">
-        <v>87.51058974645885</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J24" t="n">
-        <v>93.87635611233168</v>
+        <v>89.8779746818683</v>
       </c>
       <c r="K24" t="n">
-        <v>81.50537760306925</v>
+        <v>74.67150688558306</v>
       </c>
       <c r="L24" t="n">
-        <v>62.80359296438952</v>
+        <v>53.61461043270161</v>
       </c>
       <c r="M24" t="n">
-        <v>53.73643864213653</v>
+        <v>43.01332944396241</v>
       </c>
       <c r="N24" t="n">
-        <v>40.60449549164711</v>
+        <v>29.59757750060457</v>
       </c>
       <c r="O24" t="n">
-        <v>59.58941821720282</v>
+        <v>49.52023863137364</v>
       </c>
       <c r="P24" t="n">
-        <v>67.35411135590036</v>
+        <v>59.27270702371921</v>
       </c>
       <c r="Q24" t="n">
-        <v>95.44787045047227</v>
+        <v>90.04566567111169</v>
       </c>
       <c r="R24" t="n">
-        <v>124.0184972341387</v>
+        <v>121.3908992800214</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T24" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U24" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V24" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W24" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X24" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y24" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="25">
@@ -29193,13 +29195,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C25" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29208,61 +29210,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H25" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I25" t="n">
-        <v>146.6545884725779</v>
+        <v>145.5875995952261</v>
       </c>
       <c r="J25" t="n">
-        <v>106.3165795536497</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K25" t="n">
-        <v>95.03156866303382</v>
+        <v>90.90940486238215</v>
       </c>
       <c r="L25" t="n">
-        <v>91.3998131978517</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>82.92703276885024</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>97.11480852518908</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>102.3530120923557</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.01319082713</v>
+        <v>124.0422009391955</v>
       </c>
       <c r="R25" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S25" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T25" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U25" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V25" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W25" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X25" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y25" t="n">
-        <v>159.6266957986495</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="26">
@@ -29272,37 +29274,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="C26" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="D26" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="E26" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="F26" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="G26" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="H26" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="I26" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="K26" t="n">
-        <v>43.70221501572529</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>108.9097859085103</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -29311,37 +29313,37 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>108.9097859085103</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="R26" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="S26" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="T26" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="U26" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="V26" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="W26" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="X26" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="Y26" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
     </row>
     <row r="27">
@@ -29351,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="C27" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="D27" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="E27" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="F27" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="G27" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="H27" t="n">
-        <v>108.8660223080509</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="I27" t="n">
-        <v>87.51058974645885</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J27" t="n">
-        <v>93.87635611233168</v>
+        <v>89.8779746818683</v>
       </c>
       <c r="K27" t="n">
-        <v>81.50537760306925</v>
+        <v>74.67150688558306</v>
       </c>
       <c r="L27" t="n">
-        <v>62.80359296438952</v>
+        <v>53.61461043270161</v>
       </c>
       <c r="M27" t="n">
-        <v>53.73643864213653</v>
+        <v>43.01332944396241</v>
       </c>
       <c r="N27" t="n">
-        <v>40.60449549164711</v>
+        <v>29.59757750060457</v>
       </c>
       <c r="O27" t="n">
-        <v>59.58941821720282</v>
+        <v>49.52023863137364</v>
       </c>
       <c r="P27" t="n">
-        <v>67.35411135590036</v>
+        <v>59.27270702371921</v>
       </c>
       <c r="Q27" t="n">
-        <v>95.44787045047227</v>
+        <v>4.057030538747622</v>
       </c>
       <c r="R27" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="S27" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="T27" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="U27" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="V27" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="W27" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="X27" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="Y27" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="C28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="D28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="E28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="F28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="G28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="H28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="I28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="J28" t="n">
-        <v>106.3165795536497</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K28" t="n">
-        <v>95.03156866303382</v>
+        <v>90.90940486238215</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>86.1248627443417</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>77.49758180982286</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>92.09983178242442</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="R28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="T28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="U28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="V28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="W28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="X28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="C29" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="D29" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="E29" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="F29" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="G29" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="H29" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="I29" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="J29" t="n">
-        <v>125.7039809463194</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="K29" t="n">
-        <v>137.1466535117492</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>132.8680440907843</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>115.8519692306766</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>113.0661627084622</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>120.2351321227098</v>
+        <v>31.2992022922851</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>151.8916319349883</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="R29" t="n">
-        <v>108.9097859085103</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="S29" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="T29" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="U29" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="V29" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="W29" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="X29" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="Y29" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="C30" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="G30" t="n">
-        <v>136.9946396883307</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="H30" t="n">
-        <v>108.8660223080509</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="I30" t="n">
-        <v>87.51058974645885</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J30" t="n">
-        <v>93.87635611233168</v>
+        <v>89.8779746818683</v>
       </c>
       <c r="K30" t="n">
-        <v>81.50537760306926</v>
+        <v>74.67150688558306</v>
       </c>
       <c r="L30" t="n">
-        <v>62.80359296438955</v>
+        <v>53.61461043270161</v>
       </c>
       <c r="M30" t="n">
-        <v>53.73643864213656</v>
+        <v>43.01332944396241</v>
       </c>
       <c r="N30" t="n">
-        <v>40.60449549164714</v>
+        <v>29.59757750060457</v>
       </c>
       <c r="O30" t="n">
-        <v>59.58941821720285</v>
+        <v>49.52023863137364</v>
       </c>
       <c r="P30" t="n">
-        <v>67.35411135590039</v>
+        <v>59.27270702371921</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.34963974756661</v>
+        <v>90.04566567111169</v>
       </c>
       <c r="R30" t="n">
-        <v>124.0184972341387</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="S30" t="n">
-        <v>165.2029250243797</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="T30" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="U30" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="V30" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="W30" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="X30" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="Y30" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
     </row>
     <row r="31">
@@ -29667,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="G31" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="H31" t="n">
-        <v>159.6266957986496</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="I31" t="n">
-        <v>146.6545884725779</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="J31" t="n">
-        <v>72.68033823092634</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>90.90940486238215</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29709,34 +29711,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.67023244937852</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="R31" t="n">
-        <v>164.1421052813868</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="S31" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="T31" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="U31" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="V31" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="W31" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="X31" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
       <c r="Y31" t="n">
-        <v>167.6984922030734</v>
+        <v>103.9411961105679</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C32" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D32" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="E32" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F32" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="G32" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H32" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I32" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="J32" t="n">
-        <v>125.7039809463194</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K32" t="n">
-        <v>137.1466535117492</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>113.0661627084622</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>120.2351321227098</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P32" t="n">
-        <v>137.4673993457644</v>
+        <v>42.30356702900836</v>
       </c>
       <c r="Q32" t="n">
-        <v>151.8916319349883</v>
+        <v>143.3500236482383</v>
       </c>
       <c r="R32" t="n">
-        <v>142.3616704265283</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="S32" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T32" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U32" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V32" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W32" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X32" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="33">
@@ -29825,10 +29827,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C33" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -29840,61 +29842,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.9946396883307</v>
+        <v>136.9523189527035</v>
       </c>
       <c r="H33" t="n">
-        <v>108.8660223080509</v>
+        <v>108.4572930981776</v>
       </c>
       <c r="I33" t="n">
-        <v>87.51058974645885</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J33" t="n">
-        <v>93.87635611233168</v>
+        <v>89.8779746818683</v>
       </c>
       <c r="K33" t="n">
-        <v>81.50537760306926</v>
+        <v>74.67150688558306</v>
       </c>
       <c r="L33" t="n">
-        <v>62.80359296438955</v>
+        <v>53.61461043270161</v>
       </c>
       <c r="M33" t="n">
-        <v>53.73643864213656</v>
+        <v>43.01332944396241</v>
       </c>
       <c r="N33" t="n">
-        <v>40.60449549164714</v>
+        <v>29.59757750060457</v>
       </c>
       <c r="O33" t="n">
-        <v>59.58941821720285</v>
+        <v>49.52023863137364</v>
       </c>
       <c r="P33" t="n">
-        <v>67.35411135590039</v>
+        <v>59.27270702371921</v>
       </c>
       <c r="Q33" t="n">
-        <v>95.44787045047228</v>
+        <v>90.04566567111169</v>
       </c>
       <c r="R33" t="n">
-        <v>124.0184972341387</v>
+        <v>121.3908992800214</v>
       </c>
       <c r="S33" t="n">
-        <v>165.2029250243797</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T33" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U33" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V33" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W33" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X33" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y33" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="34">
@@ -29904,10 +29906,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -29919,19 +29921,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H34" t="n">
-        <v>159.6266957986496</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I34" t="n">
-        <v>146.6545884725779</v>
+        <v>145.5875995952261</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3165795536497</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>90.90940486238215</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29946,34 +29948,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>102.3530120923557</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.01319082713</v>
+        <v>124.0422009391955</v>
       </c>
       <c r="R34" t="n">
-        <v>164.1421052813868</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="S34" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T34" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U34" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V34" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W34" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X34" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y34" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C35" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D35" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="E35" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F35" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="G35" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H35" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I35" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="J35" t="n">
-        <v>125.7039809463194</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L35" t="n">
-        <v>132.8680440907843</v>
+        <v>120.3859119269127</v>
       </c>
       <c r="M35" t="n">
-        <v>115.8519692306766</v>
+        <v>50.25905927458115</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>98.952650693317</v>
       </c>
       <c r="O35" t="n">
-        <v>120.2351321227098</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>137.4673993457644</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>151.8916319349883</v>
+        <v>143.3500236482383</v>
       </c>
       <c r="R35" t="n">
-        <v>108.9097859085103</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="S35" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T35" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U35" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V35" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W35" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X35" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y35" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="36">
@@ -30062,10 +30064,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C36" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -30077,61 +30079,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.9946396883307</v>
+        <v>136.9523189527035</v>
       </c>
       <c r="H36" t="n">
-        <v>108.8660223080509</v>
+        <v>108.4572930981776</v>
       </c>
       <c r="I36" t="n">
-        <v>87.51058974645885</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J36" t="n">
-        <v>93.87635611233168</v>
+        <v>89.8779746818683</v>
       </c>
       <c r="K36" t="n">
-        <v>81.50537760306926</v>
+        <v>74.67150688558306</v>
       </c>
       <c r="L36" t="n">
-        <v>62.80359296438955</v>
+        <v>53.61461043270161</v>
       </c>
       <c r="M36" t="n">
-        <v>53.73643864213656</v>
+        <v>43.01332944396241</v>
       </c>
       <c r="N36" t="n">
-        <v>40.60449549164714</v>
+        <v>29.59757750060457</v>
       </c>
       <c r="O36" t="n">
-        <v>59.58941821720285</v>
+        <v>49.52023863137364</v>
       </c>
       <c r="P36" t="n">
-        <v>67.35411135590039</v>
+        <v>59.27270702371921</v>
       </c>
       <c r="Q36" t="n">
-        <v>95.44787045047228</v>
+        <v>90.04566567111169</v>
       </c>
       <c r="R36" t="n">
-        <v>124.0184972341387</v>
+        <v>121.3908992800214</v>
       </c>
       <c r="S36" t="n">
-        <v>165.2029250243797</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T36" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U36" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V36" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W36" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X36" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y36" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="37">
@@ -30141,10 +30143,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -30156,19 +30158,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H37" t="n">
-        <v>159.6266957986496</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I37" t="n">
-        <v>146.6545884725779</v>
+        <v>145.5875995952261</v>
       </c>
       <c r="J37" t="n">
-        <v>72.68033823092634</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K37" t="n">
-        <v>95.03156866303385</v>
+        <v>90.90940486238215</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,37 +30182,37 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>54.50455259197243</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>102.3530120923557</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.01319082713</v>
+        <v>124.0422009391955</v>
       </c>
       <c r="R37" t="n">
-        <v>164.1421052813868</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="S37" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T37" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U37" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V37" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W37" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X37" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y37" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C38" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D38" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="E38" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F38" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="G38" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H38" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I38" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="J38" t="n">
-        <v>125.7039809463194</v>
+        <v>118.9907045510695</v>
       </c>
       <c r="K38" t="n">
-        <v>137.1466535117492</v>
+        <v>127.0851924326491</v>
       </c>
       <c r="L38" t="n">
-        <v>132.8680440907843</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>115.8519692306766</v>
+        <v>101.9631921489827</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>106.9081429388908</v>
       </c>
       <c r="P38" t="n">
-        <v>137.4673993457644</v>
+        <v>126.0931224081668</v>
       </c>
       <c r="Q38" t="n">
-        <v>151.8916319349883</v>
+        <v>143.3500236482383</v>
       </c>
       <c r="R38" t="n">
-        <v>148.2237042814421</v>
+        <v>156.007811568755</v>
       </c>
       <c r="S38" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T38" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U38" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V38" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W38" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X38" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y38" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="39">
@@ -30299,10 +30301,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C39" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -30314,61 +30316,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.9946396883307</v>
+        <v>136.9523189527035</v>
       </c>
       <c r="H39" t="n">
-        <v>108.8660223080509</v>
+        <v>108.4572930981776</v>
       </c>
       <c r="I39" t="n">
-        <v>87.51058974645885</v>
+        <v>86.0534942435046</v>
       </c>
       <c r="J39" t="n">
-        <v>93.87635611233168</v>
+        <v>89.8779746818683</v>
       </c>
       <c r="K39" t="n">
-        <v>81.50537760306926</v>
+        <v>74.67150688558306</v>
       </c>
       <c r="L39" t="n">
-        <v>62.80359296438955</v>
+        <v>53.61461043270161</v>
       </c>
       <c r="M39" t="n">
-        <v>53.73643864213656</v>
+        <v>43.01332944396241</v>
       </c>
       <c r="N39" t="n">
-        <v>40.60449549164714</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>59.58941821720285</v>
+        <v>49.52023863137364</v>
       </c>
       <c r="P39" t="n">
-        <v>67.35411135590039</v>
+        <v>59.27270702371921</v>
       </c>
       <c r="Q39" t="n">
-        <v>95.44787045047228</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>124.0184972341387</v>
+        <v>121.3908992800214</v>
       </c>
       <c r="S39" t="n">
-        <v>165.2029250243797</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T39" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U39" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V39" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W39" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X39" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y39" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="40">
@@ -30378,10 +30380,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -30393,19 +30395,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H40" t="n">
-        <v>159.6266957986496</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I40" t="n">
-        <v>146.6545884725779</v>
+        <v>145.5875995952261</v>
       </c>
       <c r="J40" t="n">
-        <v>106.3165795536497</v>
+        <v>103.8081235381827</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>90.90940486238215</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30417,37 +30419,37 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>97.11480852518909</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>98.06183312491675</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.67023244937852</v>
+        <v>124.0422009391955</v>
       </c>
       <c r="R40" t="n">
-        <v>164.1421052813868</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="S40" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T40" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U40" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V40" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W40" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X40" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y40" t="n">
-        <v>167.6984922030734</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="41">
@@ -30457,34 +30459,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="C41" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="D41" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="E41" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="F41" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="G41" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="H41" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="I41" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="J41" t="n">
-        <v>108.9097859085103</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>64.91321685929208</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30496,37 +30498,37 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.156866413428927</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="R41" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="S41" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="T41" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="U41" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="V41" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="W41" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="X41" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="Y41" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
     </row>
     <row r="42">
@@ -30536,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="C42" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="D42" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="E42" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="F42" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="G42" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="H42" t="n">
-        <v>108.8660223080509</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="I42" t="n">
-        <v>87.51058974645885</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="J42" t="n">
-        <v>93.87635611233168</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="K42" t="n">
-        <v>81.50537760306926</v>
+        <v>74.67150688558306</v>
       </c>
       <c r="L42" t="n">
-        <v>62.80359296438955</v>
+        <v>53.61461043270161</v>
       </c>
       <c r="M42" t="n">
-        <v>53.73643864213656</v>
+        <v>43.01332944396241</v>
       </c>
       <c r="N42" t="n">
-        <v>40.60449549164714</v>
+        <v>29.59757750060457</v>
       </c>
       <c r="O42" t="n">
-        <v>59.58941821720285</v>
+        <v>49.52023863137364</v>
       </c>
       <c r="P42" t="n">
-        <v>67.35411135590039</v>
+        <v>59.27270702371921</v>
       </c>
       <c r="Q42" t="n">
-        <v>95.44787045047228</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="R42" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="S42" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="T42" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="U42" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="V42" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="W42" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="X42" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="Y42" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
     </row>
     <row r="43">
@@ -30615,37 +30617,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="C43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="D43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="E43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="F43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="G43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="H43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="I43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="J43" t="n">
-        <v>106.3165795536497</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="K43" t="n">
-        <v>95.03156866303385</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>91.39981319785171</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30654,37 +30656,37 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>97.11480852518909</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>102.3530120923557</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="R43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="S43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="T43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="U43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="V43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="W43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="X43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.9097859085103</v>
+        <v>75.92774709491968</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30730,40 +30732,40 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>55.22299563238879</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
     </row>
     <row r="45">
@@ -30773,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>74.67150688558306</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>53.61461043270161</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>43.01332944396241</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>29.59757750060457</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>49.52023863137364</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.27270702371921</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>75.8692294687006</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
     </row>
     <row r="46">
@@ -30852,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30897,31 +30899,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>75.92774709491968</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6520499398267061</v>
+        <v>0.7311471447369386</v>
       </c>
       <c r="H11" t="n">
-        <v>6.677806446250256</v>
+        <v>7.487860696037175</v>
       </c>
       <c r="I11" t="n">
-        <v>25.13815530516911</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J11" t="n">
-        <v>55.34192358036695</v>
+        <v>62.0551999756168</v>
       </c>
       <c r="K11" t="n">
-        <v>82.94319753323143</v>
+        <v>93.00465861233144</v>
       </c>
       <c r="L11" t="n">
-        <v>102.898370879203</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M11" t="n">
-        <v>114.4942639965962</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N11" t="n">
-        <v>116.3469008881288</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O11" t="n">
-        <v>109.863079298977</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P11" t="n">
-        <v>93.76559640950519</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q11" t="n">
-        <v>70.41405793946126</v>
+        <v>78.95566622621114</v>
       </c>
       <c r="R11" t="n">
-        <v>40.95933203263937</v>
+        <v>45.92792183058176</v>
       </c>
       <c r="S11" t="n">
-        <v>14.85858800380108</v>
+        <v>16.66101556069301</v>
       </c>
       <c r="T11" t="n">
-        <v>2.854348611591408</v>
+        <v>3.200596626085951</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05216399518613648</v>
+        <v>0.05849177157895508</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3488774748799214</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H12" t="n">
-        <v>3.369421928445557</v>
+        <v>3.778151138318837</v>
       </c>
       <c r="I12" t="n">
-        <v>12.01179025354115</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J12" t="n">
-        <v>32.96127055433503</v>
+        <v>36.95965198479839</v>
       </c>
       <c r="K12" t="n">
-        <v>56.33606137128977</v>
+        <v>63.16993208877593</v>
       </c>
       <c r="L12" t="n">
-        <v>75.75078681548469</v>
+        <v>84.93976934717257</v>
       </c>
       <c r="M12" t="n">
-        <v>88.39759527988181</v>
+        <v>99.12070447805591</v>
       </c>
       <c r="N12" t="n">
-        <v>90.73721659168622</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O12" t="n">
-        <v>83.00682622724165</v>
+        <v>93.07600581307079</v>
       </c>
       <c r="P12" t="n">
-        <v>66.6202960584299</v>
+        <v>74.70170039061104</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.53390363554927</v>
+        <v>49.93610841490982</v>
       </c>
       <c r="R12" t="n">
-        <v>21.6610067298253</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S12" t="n">
-        <v>6.480246079458184</v>
+        <v>7.266335182007384</v>
       </c>
       <c r="T12" t="n">
-        <v>1.406221050064244</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02295246545262641</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2924871553853813</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H13" t="n">
-        <v>2.600476708790028</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I13" t="n">
-        <v>8.795886454680378</v>
+        <v>9.862875332032157</v>
       </c>
       <c r="J13" t="n">
-        <v>20.67884188574645</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K13" t="n">
-        <v>33.98168950750156</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L13" t="n">
-        <v>43.4848630833866</v>
+        <v>48.75981353689658</v>
       </c>
       <c r="M13" t="n">
-        <v>45.84869109372844</v>
+        <v>51.410386744326</v>
       </c>
       <c r="N13" t="n">
-        <v>44.75851169638297</v>
+        <v>50.18796265541033</v>
       </c>
       <c r="O13" t="n">
-        <v>41.34172992665373</v>
+        <v>46.35670666941838</v>
       </c>
       <c r="P13" t="n">
-        <v>35.37499195679192</v>
+        <v>39.66617092423088</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.49181080231588</v>
+        <v>27.46280069025036</v>
       </c>
       <c r="R13" t="n">
-        <v>13.15128609578269</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S13" t="n">
-        <v>5.097253426125234</v>
+        <v>5.715577996222985</v>
       </c>
       <c r="T13" t="n">
-        <v>1.249717845737538</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01595384483920263</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6520499398267061</v>
+        <v>0.7311471447369386</v>
       </c>
       <c r="H14" t="n">
-        <v>6.677806446250256</v>
+        <v>7.487860696037175</v>
       </c>
       <c r="I14" t="n">
-        <v>25.13815530516911</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J14" t="n">
-        <v>55.34192358036695</v>
+        <v>62.0551999756168</v>
       </c>
       <c r="K14" t="n">
-        <v>82.94319753323143</v>
+        <v>93.00465861233144</v>
       </c>
       <c r="L14" t="n">
-        <v>102.898370879203</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M14" t="n">
-        <v>114.4942639965962</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N14" t="n">
-        <v>116.3469008881288</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O14" t="n">
-        <v>109.863079298977</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P14" t="n">
-        <v>93.76559640950519</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q14" t="n">
-        <v>70.41405793946126</v>
+        <v>78.95566622621114</v>
       </c>
       <c r="R14" t="n">
-        <v>40.95933203263937</v>
+        <v>45.92792183058176</v>
       </c>
       <c r="S14" t="n">
-        <v>14.85858800380108</v>
+        <v>16.66101556069301</v>
       </c>
       <c r="T14" t="n">
-        <v>2.854348611591408</v>
+        <v>3.200596626085951</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05216399518613648</v>
+        <v>0.05849177157895508</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3488774748799214</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H15" t="n">
-        <v>3.369421928445557</v>
+        <v>3.778151138318837</v>
       </c>
       <c r="I15" t="n">
-        <v>12.01179025354115</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J15" t="n">
-        <v>32.96127055433503</v>
+        <v>36.95965198479839</v>
       </c>
       <c r="K15" t="n">
-        <v>56.33606137128977</v>
+        <v>63.16993208877593</v>
       </c>
       <c r="L15" t="n">
-        <v>75.75078681548469</v>
+        <v>84.93976934717257</v>
       </c>
       <c r="M15" t="n">
-        <v>88.39759527988181</v>
+        <v>99.12070447805591</v>
       </c>
       <c r="N15" t="n">
-        <v>90.73721659168622</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O15" t="n">
-        <v>83.00682622724165</v>
+        <v>93.07600581307079</v>
       </c>
       <c r="P15" t="n">
-        <v>66.6202960584299</v>
+        <v>74.70170039061104</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.53390363554927</v>
+        <v>49.93610841490982</v>
       </c>
       <c r="R15" t="n">
-        <v>21.6610067298253</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S15" t="n">
-        <v>6.480246079458184</v>
+        <v>7.266335182007384</v>
       </c>
       <c r="T15" t="n">
-        <v>1.406221050064244</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02295246545262641</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2924871553853813</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H16" t="n">
-        <v>2.600476708790028</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I16" t="n">
-        <v>8.795886454680378</v>
+        <v>9.862875332032157</v>
       </c>
       <c r="J16" t="n">
-        <v>20.67884188574645</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K16" t="n">
-        <v>33.98168950750156</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L16" t="n">
-        <v>43.4848630833866</v>
+        <v>48.75981353689658</v>
       </c>
       <c r="M16" t="n">
-        <v>45.84869109372844</v>
+        <v>51.410386744326</v>
       </c>
       <c r="N16" t="n">
-        <v>44.75851169638297</v>
+        <v>50.18796265541033</v>
       </c>
       <c r="O16" t="n">
-        <v>41.34172992665373</v>
+        <v>46.35670666941838</v>
       </c>
       <c r="P16" t="n">
-        <v>35.37499195679192</v>
+        <v>39.66617092423088</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.49181080231588</v>
+        <v>27.46280069025036</v>
       </c>
       <c r="R16" t="n">
-        <v>13.15128609578269</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S16" t="n">
-        <v>5.097253426125234</v>
+        <v>5.715577996222985</v>
       </c>
       <c r="T16" t="n">
-        <v>1.249717845737538</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01595384483920263</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6520499398267059</v>
+        <v>0.7311471447369386</v>
       </c>
       <c r="H17" t="n">
-        <v>6.677806446250253</v>
+        <v>7.487860696037175</v>
       </c>
       <c r="I17" t="n">
-        <v>25.1381553051691</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J17" t="n">
-        <v>55.34192358036693</v>
+        <v>62.0551999756168</v>
       </c>
       <c r="K17" t="n">
-        <v>82.9431975332314</v>
+        <v>93.00465861233144</v>
       </c>
       <c r="L17" t="n">
-        <v>102.898370879203</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M17" t="n">
-        <v>114.4942639965961</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N17" t="n">
-        <v>116.3469008881288</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O17" t="n">
-        <v>109.863079298977</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P17" t="n">
-        <v>93.76559640950516</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q17" t="n">
-        <v>70.41405793946123</v>
+        <v>78.95566622621114</v>
       </c>
       <c r="R17" t="n">
-        <v>40.95933203263935</v>
+        <v>45.92792183058176</v>
       </c>
       <c r="S17" t="n">
-        <v>14.85858800380107</v>
+        <v>16.66101556069301</v>
       </c>
       <c r="T17" t="n">
-        <v>2.854348611591406</v>
+        <v>3.200596626085951</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05216399518613646</v>
+        <v>0.05849177157895508</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3488774748799213</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H18" t="n">
-        <v>3.369421928445556</v>
+        <v>3.778151138318837</v>
       </c>
       <c r="I18" t="n">
-        <v>12.01179025354115</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J18" t="n">
-        <v>32.96127055433502</v>
+        <v>36.95965198479839</v>
       </c>
       <c r="K18" t="n">
-        <v>56.33606137128974</v>
+        <v>63.16993208877593</v>
       </c>
       <c r="L18" t="n">
-        <v>75.75078681548466</v>
+        <v>84.93976934717257</v>
       </c>
       <c r="M18" t="n">
-        <v>88.39759527988178</v>
+        <v>99.12070447805591</v>
       </c>
       <c r="N18" t="n">
-        <v>90.73721659168619</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O18" t="n">
-        <v>83.00682622724162</v>
+        <v>93.07600581307079</v>
       </c>
       <c r="P18" t="n">
-        <v>66.62029605842989</v>
+        <v>74.70170039061104</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.53390363554925</v>
+        <v>49.93610841490982</v>
       </c>
       <c r="R18" t="n">
-        <v>21.6610067298253</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S18" t="n">
-        <v>6.480246079458182</v>
+        <v>7.266335182007384</v>
       </c>
       <c r="T18" t="n">
-        <v>1.406221050064243</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02295246545262641</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2924871553853812</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H19" t="n">
-        <v>2.600476708790027</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I19" t="n">
-        <v>8.795886454680375</v>
+        <v>9.862875332032157</v>
       </c>
       <c r="J19" t="n">
-        <v>20.67884188574645</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K19" t="n">
-        <v>33.98168950750155</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L19" t="n">
-        <v>43.48486308338659</v>
+        <v>48.75981353689658</v>
       </c>
       <c r="M19" t="n">
-        <v>45.84869109372843</v>
+        <v>51.410386744326</v>
       </c>
       <c r="N19" t="n">
-        <v>44.75851169638295</v>
+        <v>50.18796265541033</v>
       </c>
       <c r="O19" t="n">
-        <v>41.34172992665371</v>
+        <v>46.35670666941838</v>
       </c>
       <c r="P19" t="n">
-        <v>35.3749919567919</v>
+        <v>39.66617092423088</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.49181080231588</v>
+        <v>27.46280069025036</v>
       </c>
       <c r="R19" t="n">
-        <v>13.15128609578268</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S19" t="n">
-        <v>5.097253426125232</v>
+        <v>5.715577996222985</v>
       </c>
       <c r="T19" t="n">
-        <v>1.249717845737537</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01595384483920263</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6520499398267059</v>
+        <v>0.7311471447369386</v>
       </c>
       <c r="H20" t="n">
-        <v>6.677806446250253</v>
+        <v>7.487860696037175</v>
       </c>
       <c r="I20" t="n">
-        <v>25.1381553051691</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J20" t="n">
-        <v>55.34192358036693</v>
+        <v>62.0551999756168</v>
       </c>
       <c r="K20" t="n">
-        <v>82.9431975332314</v>
+        <v>93.00465861233144</v>
       </c>
       <c r="L20" t="n">
-        <v>102.898370879203</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M20" t="n">
-        <v>114.4942639965961</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N20" t="n">
-        <v>116.3469008881288</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O20" t="n">
-        <v>109.863079298977</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P20" t="n">
-        <v>93.76559640950516</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.41405793946123</v>
+        <v>78.95566622621114</v>
       </c>
       <c r="R20" t="n">
-        <v>40.95933203263935</v>
+        <v>45.92792183058176</v>
       </c>
       <c r="S20" t="n">
-        <v>14.85858800380107</v>
+        <v>16.66101556069301</v>
       </c>
       <c r="T20" t="n">
-        <v>2.854348611591406</v>
+        <v>3.200596626085951</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05216399518613646</v>
+        <v>0.05849177157895508</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3488774748799213</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H21" t="n">
-        <v>3.369421928445556</v>
+        <v>3.778151138318837</v>
       </c>
       <c r="I21" t="n">
-        <v>12.01179025354115</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J21" t="n">
-        <v>32.96127055433502</v>
+        <v>36.95965198479839</v>
       </c>
       <c r="K21" t="n">
-        <v>56.33606137128974</v>
+        <v>63.16993208877593</v>
       </c>
       <c r="L21" t="n">
-        <v>75.75078681548466</v>
+        <v>84.93976934717257</v>
       </c>
       <c r="M21" t="n">
-        <v>88.39759527988178</v>
+        <v>99.12070447805591</v>
       </c>
       <c r="N21" t="n">
-        <v>90.73721659168619</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O21" t="n">
-        <v>83.00682622724162</v>
+        <v>93.07600581307079</v>
       </c>
       <c r="P21" t="n">
-        <v>66.62029605842989</v>
+        <v>74.70170039061104</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.53390363554925</v>
+        <v>49.93610841490982</v>
       </c>
       <c r="R21" t="n">
-        <v>21.6610067298253</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S21" t="n">
-        <v>6.480246079458182</v>
+        <v>7.266335182007384</v>
       </c>
       <c r="T21" t="n">
-        <v>1.406221050064243</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02295246545262641</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2924871553853812</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H22" t="n">
-        <v>2.600476708790027</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I22" t="n">
-        <v>8.795886454680375</v>
+        <v>9.862875332032157</v>
       </c>
       <c r="J22" t="n">
-        <v>20.67884188574645</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K22" t="n">
-        <v>33.98168950750155</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L22" t="n">
-        <v>43.48486308338659</v>
+        <v>48.75981353689658</v>
       </c>
       <c r="M22" t="n">
-        <v>45.84869109372843</v>
+        <v>51.410386744326</v>
       </c>
       <c r="N22" t="n">
-        <v>44.75851169638295</v>
+        <v>50.18796265541033</v>
       </c>
       <c r="O22" t="n">
-        <v>41.34172992665371</v>
+        <v>46.35670666941838</v>
       </c>
       <c r="P22" t="n">
-        <v>35.3749919567919</v>
+        <v>39.66617092423088</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.49181080231588</v>
+        <v>27.46280069025036</v>
       </c>
       <c r="R22" t="n">
-        <v>13.15128609578268</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S22" t="n">
-        <v>5.097253426125232</v>
+        <v>5.715577996222985</v>
       </c>
       <c r="T22" t="n">
-        <v>1.249717845737537</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01595384483920263</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6520499398267059</v>
+        <v>0.7311471447369386</v>
       </c>
       <c r="H23" t="n">
-        <v>6.677806446250253</v>
+        <v>7.487860696037175</v>
       </c>
       <c r="I23" t="n">
-        <v>25.1381553051691</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J23" t="n">
-        <v>55.34192358036693</v>
+        <v>62.0551999756168</v>
       </c>
       <c r="K23" t="n">
-        <v>82.9431975332314</v>
+        <v>93.00465861233144</v>
       </c>
       <c r="L23" t="n">
-        <v>102.898370879203</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M23" t="n">
-        <v>114.4942639965961</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N23" t="n">
-        <v>116.3469008881288</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O23" t="n">
-        <v>109.863079298977</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P23" t="n">
-        <v>93.76559640950516</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q23" t="n">
-        <v>70.41405793946123</v>
+        <v>78.95566622621114</v>
       </c>
       <c r="R23" t="n">
-        <v>40.95933203263935</v>
+        <v>45.92792183058176</v>
       </c>
       <c r="S23" t="n">
-        <v>14.85858800380107</v>
+        <v>16.66101556069301</v>
       </c>
       <c r="T23" t="n">
-        <v>2.854348611591406</v>
+        <v>3.200596626085951</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05216399518613646</v>
+        <v>0.05849177157895508</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3488774748799213</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H24" t="n">
-        <v>3.369421928445556</v>
+        <v>3.778151138318837</v>
       </c>
       <c r="I24" t="n">
-        <v>12.01179025354115</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J24" t="n">
-        <v>32.96127055433502</v>
+        <v>36.95965198479839</v>
       </c>
       <c r="K24" t="n">
-        <v>56.33606137128974</v>
+        <v>63.16993208877593</v>
       </c>
       <c r="L24" t="n">
-        <v>75.75078681548466</v>
+        <v>84.93976934717257</v>
       </c>
       <c r="M24" t="n">
-        <v>88.39759527988178</v>
+        <v>99.12070447805591</v>
       </c>
       <c r="N24" t="n">
-        <v>90.73721659168619</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O24" t="n">
-        <v>83.00682622724162</v>
+        <v>93.07600581307079</v>
       </c>
       <c r="P24" t="n">
-        <v>66.62029605842989</v>
+        <v>74.70170039061104</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.53390363554925</v>
+        <v>49.93610841490982</v>
       </c>
       <c r="R24" t="n">
-        <v>21.6610067298253</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S24" t="n">
-        <v>6.480246079458182</v>
+        <v>7.266335182007384</v>
       </c>
       <c r="T24" t="n">
-        <v>1.406221050064243</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02295246545262641</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2924871553853812</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H25" t="n">
-        <v>2.600476708790027</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I25" t="n">
-        <v>8.795886454680375</v>
+        <v>9.862875332032157</v>
       </c>
       <c r="J25" t="n">
-        <v>20.67884188574645</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K25" t="n">
-        <v>33.98168950750155</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L25" t="n">
-        <v>43.48486308338659</v>
+        <v>48.75981353689658</v>
       </c>
       <c r="M25" t="n">
-        <v>45.84869109372843</v>
+        <v>51.410386744326</v>
       </c>
       <c r="N25" t="n">
-        <v>44.75851169638295</v>
+        <v>50.18796265541033</v>
       </c>
       <c r="O25" t="n">
-        <v>41.34172992665371</v>
+        <v>46.35670666941838</v>
       </c>
       <c r="P25" t="n">
-        <v>35.3749919567919</v>
+        <v>39.66617092423088</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.49181080231588</v>
+        <v>27.46280069025036</v>
       </c>
       <c r="R25" t="n">
-        <v>13.15128609578268</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S25" t="n">
-        <v>5.097253426125232</v>
+        <v>5.715577996222985</v>
       </c>
       <c r="T25" t="n">
-        <v>1.249717845737537</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01595384483920263</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6520499398267059</v>
+        <v>0.7311471447369386</v>
       </c>
       <c r="H26" t="n">
-        <v>6.677806446250253</v>
+        <v>7.487860696037175</v>
       </c>
       <c r="I26" t="n">
-        <v>25.1381553051691</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J26" t="n">
-        <v>55.34192358036693</v>
+        <v>62.0551999756168</v>
       </c>
       <c r="K26" t="n">
-        <v>82.9431975332314</v>
+        <v>93.00465861233144</v>
       </c>
       <c r="L26" t="n">
-        <v>102.898370879203</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M26" t="n">
-        <v>114.4942639965961</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N26" t="n">
-        <v>116.3469008881288</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O26" t="n">
-        <v>109.863079298977</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P26" t="n">
-        <v>93.76559640950516</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q26" t="n">
-        <v>70.41405793946123</v>
+        <v>78.95566622621114</v>
       </c>
       <c r="R26" t="n">
-        <v>40.95933203263935</v>
+        <v>45.92792183058176</v>
       </c>
       <c r="S26" t="n">
-        <v>14.85858800380107</v>
+        <v>16.66101556069301</v>
       </c>
       <c r="T26" t="n">
-        <v>2.854348611591406</v>
+        <v>3.200596626085951</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05216399518613646</v>
+        <v>0.05849177157895508</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3488774748799213</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H27" t="n">
-        <v>3.369421928445556</v>
+        <v>3.778151138318837</v>
       </c>
       <c r="I27" t="n">
-        <v>12.01179025354115</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J27" t="n">
-        <v>32.96127055433502</v>
+        <v>36.95965198479839</v>
       </c>
       <c r="K27" t="n">
-        <v>56.33606137128974</v>
+        <v>63.16993208877593</v>
       </c>
       <c r="L27" t="n">
-        <v>75.75078681548466</v>
+        <v>84.93976934717257</v>
       </c>
       <c r="M27" t="n">
-        <v>88.39759527988178</v>
+        <v>99.12070447805591</v>
       </c>
       <c r="N27" t="n">
-        <v>90.73721659168619</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O27" t="n">
-        <v>83.00682622724162</v>
+        <v>93.07600581307079</v>
       </c>
       <c r="P27" t="n">
-        <v>66.62029605842989</v>
+        <v>74.70170039061104</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.53390363554925</v>
+        <v>49.93610841490982</v>
       </c>
       <c r="R27" t="n">
-        <v>21.6610067298253</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S27" t="n">
-        <v>6.480246079458182</v>
+        <v>7.266335182007384</v>
       </c>
       <c r="T27" t="n">
-        <v>1.406221050064243</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02295246545262641</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2924871553853812</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H28" t="n">
-        <v>2.600476708790027</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I28" t="n">
-        <v>8.795886454680375</v>
+        <v>9.862875332032157</v>
       </c>
       <c r="J28" t="n">
-        <v>20.67884188574645</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K28" t="n">
-        <v>33.98168950750155</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L28" t="n">
-        <v>43.48486308338659</v>
+        <v>48.75981353689658</v>
       </c>
       <c r="M28" t="n">
-        <v>45.84869109372843</v>
+        <v>51.410386744326</v>
       </c>
       <c r="N28" t="n">
-        <v>44.75851169638295</v>
+        <v>50.18796265541033</v>
       </c>
       <c r="O28" t="n">
-        <v>41.34172992665371</v>
+        <v>46.35670666941838</v>
       </c>
       <c r="P28" t="n">
-        <v>35.3749919567919</v>
+        <v>39.66617092423088</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.49181080231588</v>
+        <v>27.46280069025036</v>
       </c>
       <c r="R28" t="n">
-        <v>13.15128609578268</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S28" t="n">
-        <v>5.097253426125232</v>
+        <v>5.715577996222985</v>
       </c>
       <c r="T28" t="n">
-        <v>1.249717845737537</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01595384483920263</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6520499398267057</v>
+        <v>0.7311471447369386</v>
       </c>
       <c r="H29" t="n">
-        <v>6.677806446250251</v>
+        <v>7.487860696037175</v>
       </c>
       <c r="I29" t="n">
-        <v>25.13815530516909</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J29" t="n">
-        <v>55.34192358036691</v>
+        <v>62.0551999756168</v>
       </c>
       <c r="K29" t="n">
-        <v>82.94319753323137</v>
+        <v>93.00465861233144</v>
       </c>
       <c r="L29" t="n">
-        <v>102.8983708792029</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M29" t="n">
-        <v>114.4942639965961</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N29" t="n">
-        <v>116.3469008881287</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O29" t="n">
-        <v>109.8630792989769</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P29" t="n">
-        <v>93.76559640950512</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q29" t="n">
-        <v>70.4140579394612</v>
+        <v>78.95566622621114</v>
       </c>
       <c r="R29" t="n">
-        <v>40.95933203263934</v>
+        <v>45.92792183058176</v>
       </c>
       <c r="S29" t="n">
-        <v>14.85858800380107</v>
+        <v>16.66101556069301</v>
       </c>
       <c r="T29" t="n">
-        <v>2.854348611591405</v>
+        <v>3.200596626085951</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05216399518613644</v>
+        <v>0.05849177157895508</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3488774748799212</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H30" t="n">
-        <v>3.369421928445555</v>
+        <v>3.778151138318837</v>
       </c>
       <c r="I30" t="n">
-        <v>12.01179025354114</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J30" t="n">
-        <v>32.96127055433501</v>
+        <v>36.95965198479839</v>
       </c>
       <c r="K30" t="n">
-        <v>56.33606137128972</v>
+        <v>63.16993208877593</v>
       </c>
       <c r="L30" t="n">
-        <v>75.75078681548463</v>
+        <v>84.93976934717257</v>
       </c>
       <c r="M30" t="n">
-        <v>88.39759527988176</v>
+        <v>99.12070447805591</v>
       </c>
       <c r="N30" t="n">
-        <v>90.73721659168616</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O30" t="n">
-        <v>83.00682622724159</v>
+        <v>93.07600581307079</v>
       </c>
       <c r="P30" t="n">
-        <v>66.62029605842986</v>
+        <v>74.70170039061104</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.53390363554924</v>
+        <v>49.93610841490982</v>
       </c>
       <c r="R30" t="n">
-        <v>21.66100672982529</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S30" t="n">
-        <v>6.48024607945818</v>
+        <v>7.266335182007384</v>
       </c>
       <c r="T30" t="n">
-        <v>1.406221050064243</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0229524654526264</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2924871553853811</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H31" t="n">
-        <v>2.600476708790026</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I31" t="n">
-        <v>8.795886454680371</v>
+        <v>9.862875332032157</v>
       </c>
       <c r="J31" t="n">
-        <v>20.67884188574644</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K31" t="n">
-        <v>33.98168950750154</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L31" t="n">
-        <v>43.48486308338657</v>
+        <v>48.75981353689658</v>
       </c>
       <c r="M31" t="n">
-        <v>45.84869109372841</v>
+        <v>51.410386744326</v>
       </c>
       <c r="N31" t="n">
-        <v>44.75851169638293</v>
+        <v>50.18796265541033</v>
       </c>
       <c r="O31" t="n">
-        <v>41.3417299266537</v>
+        <v>46.35670666941838</v>
       </c>
       <c r="P31" t="n">
-        <v>35.3749919567919</v>
+        <v>39.66617092423088</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.49181080231586</v>
+        <v>27.46280069025036</v>
       </c>
       <c r="R31" t="n">
-        <v>13.15128609578268</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S31" t="n">
-        <v>5.09725342612523</v>
+        <v>5.715577996222985</v>
       </c>
       <c r="T31" t="n">
-        <v>1.249717845737537</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01595384483920262</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6520499398267057</v>
+        <v>0.7311471447369386</v>
       </c>
       <c r="H32" t="n">
-        <v>6.677806446250251</v>
+        <v>7.487860696037175</v>
       </c>
       <c r="I32" t="n">
-        <v>25.13815530516909</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J32" t="n">
-        <v>55.34192358036691</v>
+        <v>62.0551999756168</v>
       </c>
       <c r="K32" t="n">
-        <v>82.94319753323137</v>
+        <v>93.00465861233144</v>
       </c>
       <c r="L32" t="n">
-        <v>102.8983708792029</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M32" t="n">
-        <v>114.4942639965961</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N32" t="n">
-        <v>116.3469008881287</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O32" t="n">
-        <v>109.8630792989769</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P32" t="n">
-        <v>93.76559640950512</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q32" t="n">
-        <v>70.4140579394612</v>
+        <v>78.95566622621114</v>
       </c>
       <c r="R32" t="n">
-        <v>40.95933203263934</v>
+        <v>45.92792183058176</v>
       </c>
       <c r="S32" t="n">
-        <v>14.85858800380107</v>
+        <v>16.66101556069301</v>
       </c>
       <c r="T32" t="n">
-        <v>2.854348611591405</v>
+        <v>3.200596626085951</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05216399518613644</v>
+        <v>0.05849177157895508</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3488774748799212</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H33" t="n">
-        <v>3.369421928445555</v>
+        <v>3.778151138318837</v>
       </c>
       <c r="I33" t="n">
-        <v>12.01179025354114</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J33" t="n">
-        <v>32.96127055433501</v>
+        <v>36.95965198479839</v>
       </c>
       <c r="K33" t="n">
-        <v>56.33606137128972</v>
+        <v>63.16993208877593</v>
       </c>
       <c r="L33" t="n">
-        <v>75.75078681548463</v>
+        <v>84.93976934717257</v>
       </c>
       <c r="M33" t="n">
-        <v>88.39759527988176</v>
+        <v>99.12070447805591</v>
       </c>
       <c r="N33" t="n">
-        <v>90.73721659168616</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O33" t="n">
-        <v>83.00682622724159</v>
+        <v>93.07600581307079</v>
       </c>
       <c r="P33" t="n">
-        <v>66.62029605842986</v>
+        <v>74.70170039061104</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.53390363554924</v>
+        <v>49.93610841490982</v>
       </c>
       <c r="R33" t="n">
-        <v>21.66100672982529</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S33" t="n">
-        <v>6.48024607945818</v>
+        <v>7.266335182007384</v>
       </c>
       <c r="T33" t="n">
-        <v>1.406221050064243</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0229524654526264</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2924871553853811</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H34" t="n">
-        <v>2.600476708790026</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I34" t="n">
-        <v>8.795886454680371</v>
+        <v>9.862875332032157</v>
       </c>
       <c r="J34" t="n">
-        <v>20.67884188574644</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K34" t="n">
-        <v>33.98168950750154</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L34" t="n">
-        <v>43.48486308338657</v>
+        <v>48.75981353689658</v>
       </c>
       <c r="M34" t="n">
-        <v>45.84869109372841</v>
+        <v>51.410386744326</v>
       </c>
       <c r="N34" t="n">
-        <v>44.75851169638293</v>
+        <v>50.18796265541033</v>
       </c>
       <c r="O34" t="n">
-        <v>41.3417299266537</v>
+        <v>46.35670666941838</v>
       </c>
       <c r="P34" t="n">
-        <v>35.3749919567919</v>
+        <v>39.66617092423088</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.49181080231586</v>
+        <v>27.46280069025036</v>
       </c>
       <c r="R34" t="n">
-        <v>13.15128609578268</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S34" t="n">
-        <v>5.09725342612523</v>
+        <v>5.715577996222985</v>
       </c>
       <c r="T34" t="n">
-        <v>1.249717845737537</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01595384483920262</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6520499398267057</v>
+        <v>0.7311471447369386</v>
       </c>
       <c r="H35" t="n">
-        <v>6.677806446250251</v>
+        <v>7.487860696037175</v>
       </c>
       <c r="I35" t="n">
-        <v>25.13815530516909</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J35" t="n">
-        <v>55.34192358036691</v>
+        <v>62.0551999756168</v>
       </c>
       <c r="K35" t="n">
-        <v>82.94319753323137</v>
+        <v>93.00465861233144</v>
       </c>
       <c r="L35" t="n">
-        <v>102.8983708792029</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M35" t="n">
-        <v>114.4942639965961</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N35" t="n">
-        <v>116.3469008881287</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O35" t="n">
-        <v>109.8630792989769</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P35" t="n">
-        <v>93.76559640950512</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q35" t="n">
-        <v>70.4140579394612</v>
+        <v>78.95566622621114</v>
       </c>
       <c r="R35" t="n">
-        <v>40.95933203263934</v>
+        <v>45.92792183058176</v>
       </c>
       <c r="S35" t="n">
-        <v>14.85858800380107</v>
+        <v>16.66101556069301</v>
       </c>
       <c r="T35" t="n">
-        <v>2.854348611591405</v>
+        <v>3.200596626085951</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05216399518613644</v>
+        <v>0.05849177157895508</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3488774748799212</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H36" t="n">
-        <v>3.369421928445555</v>
+        <v>3.778151138318837</v>
       </c>
       <c r="I36" t="n">
-        <v>12.01179025354114</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J36" t="n">
-        <v>32.96127055433501</v>
+        <v>36.95965198479839</v>
       </c>
       <c r="K36" t="n">
-        <v>56.33606137128972</v>
+        <v>63.16993208877593</v>
       </c>
       <c r="L36" t="n">
-        <v>75.75078681548463</v>
+        <v>84.93976934717257</v>
       </c>
       <c r="M36" t="n">
-        <v>88.39759527988176</v>
+        <v>99.12070447805591</v>
       </c>
       <c r="N36" t="n">
-        <v>90.73721659168616</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O36" t="n">
-        <v>83.00682622724159</v>
+        <v>93.07600581307079</v>
       </c>
       <c r="P36" t="n">
-        <v>66.62029605842986</v>
+        <v>74.70170039061104</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.53390363554924</v>
+        <v>49.93610841490982</v>
       </c>
       <c r="R36" t="n">
-        <v>21.66100672982529</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S36" t="n">
-        <v>6.48024607945818</v>
+        <v>7.266335182007384</v>
       </c>
       <c r="T36" t="n">
-        <v>1.406221050064243</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0229524654526264</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2924871553853811</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H37" t="n">
-        <v>2.600476708790026</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I37" t="n">
-        <v>8.795886454680371</v>
+        <v>9.862875332032157</v>
       </c>
       <c r="J37" t="n">
-        <v>20.67884188574644</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K37" t="n">
-        <v>33.98168950750154</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L37" t="n">
-        <v>43.48486308338657</v>
+        <v>48.75981353689658</v>
       </c>
       <c r="M37" t="n">
-        <v>45.84869109372841</v>
+        <v>51.410386744326</v>
       </c>
       <c r="N37" t="n">
-        <v>44.75851169638293</v>
+        <v>50.18796265541033</v>
       </c>
       <c r="O37" t="n">
-        <v>41.3417299266537</v>
+        <v>46.35670666941838</v>
       </c>
       <c r="P37" t="n">
-        <v>35.3749919567919</v>
+        <v>39.66617092423088</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.49181080231586</v>
+        <v>27.46280069025036</v>
       </c>
       <c r="R37" t="n">
-        <v>13.15128609578268</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S37" t="n">
-        <v>5.09725342612523</v>
+        <v>5.715577996222985</v>
       </c>
       <c r="T37" t="n">
-        <v>1.249717845737537</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01595384483920262</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6520499398267057</v>
+        <v>0.7311471447369386</v>
       </c>
       <c r="H38" t="n">
-        <v>6.677806446250251</v>
+        <v>7.487860696037175</v>
       </c>
       <c r="I38" t="n">
-        <v>25.13815530516909</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J38" t="n">
-        <v>55.34192358036691</v>
+        <v>62.0551999756168</v>
       </c>
       <c r="K38" t="n">
-        <v>82.94319753323137</v>
+        <v>93.00465861233144</v>
       </c>
       <c r="L38" t="n">
-        <v>102.8983708792029</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M38" t="n">
-        <v>114.4942639965961</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N38" t="n">
-        <v>116.3469008881287</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O38" t="n">
-        <v>109.8630792989769</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P38" t="n">
-        <v>93.76559640950512</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q38" t="n">
-        <v>70.4140579394612</v>
+        <v>78.95566622621114</v>
       </c>
       <c r="R38" t="n">
-        <v>40.95933203263934</v>
+        <v>45.92792183058176</v>
       </c>
       <c r="S38" t="n">
-        <v>14.85858800380107</v>
+        <v>16.66101556069301</v>
       </c>
       <c r="T38" t="n">
-        <v>2.854348611591405</v>
+        <v>3.200596626085951</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05216399518613644</v>
+        <v>0.05849177157895508</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3488774748799212</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H39" t="n">
-        <v>3.369421928445555</v>
+        <v>3.778151138318837</v>
       </c>
       <c r="I39" t="n">
-        <v>12.01179025354114</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J39" t="n">
-        <v>32.96127055433501</v>
+        <v>36.95965198479839</v>
       </c>
       <c r="K39" t="n">
-        <v>56.33606137128972</v>
+        <v>63.16993208877593</v>
       </c>
       <c r="L39" t="n">
-        <v>75.75078681548463</v>
+        <v>84.93976934717257</v>
       </c>
       <c r="M39" t="n">
-        <v>88.39759527988176</v>
+        <v>99.12070447805591</v>
       </c>
       <c r="N39" t="n">
-        <v>90.73721659168616</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O39" t="n">
-        <v>83.00682622724159</v>
+        <v>93.07600581307079</v>
       </c>
       <c r="P39" t="n">
-        <v>66.62029605842986</v>
+        <v>74.70170039061104</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.53390363554924</v>
+        <v>49.93610841490982</v>
       </c>
       <c r="R39" t="n">
-        <v>21.66100672982529</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S39" t="n">
-        <v>6.48024607945818</v>
+        <v>7.266335182007384</v>
       </c>
       <c r="T39" t="n">
-        <v>1.406221050064243</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0229524654526264</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2924871553853811</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H40" t="n">
-        <v>2.600476708790026</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I40" t="n">
-        <v>8.795886454680371</v>
+        <v>9.862875332032157</v>
       </c>
       <c r="J40" t="n">
-        <v>20.67884188574644</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K40" t="n">
-        <v>33.98168950750154</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L40" t="n">
-        <v>43.48486308338657</v>
+        <v>48.75981353689658</v>
       </c>
       <c r="M40" t="n">
-        <v>45.84869109372841</v>
+        <v>51.410386744326</v>
       </c>
       <c r="N40" t="n">
-        <v>44.75851169638293</v>
+        <v>50.18796265541033</v>
       </c>
       <c r="O40" t="n">
-        <v>41.3417299266537</v>
+        <v>46.35670666941838</v>
       </c>
       <c r="P40" t="n">
-        <v>35.3749919567919</v>
+        <v>39.66617092423088</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.49181080231586</v>
+        <v>27.46280069025036</v>
       </c>
       <c r="R40" t="n">
-        <v>13.15128609578268</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S40" t="n">
-        <v>5.09725342612523</v>
+        <v>5.715577996222985</v>
       </c>
       <c r="T40" t="n">
-        <v>1.249717845737537</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01595384483920262</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6520499398267057</v>
+        <v>0.7311471447369386</v>
       </c>
       <c r="H41" t="n">
-        <v>6.677806446250251</v>
+        <v>7.487860696037175</v>
       </c>
       <c r="I41" t="n">
-        <v>25.13815530516909</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J41" t="n">
-        <v>55.34192358036691</v>
+        <v>62.0551999756168</v>
       </c>
       <c r="K41" t="n">
-        <v>82.94319753323137</v>
+        <v>93.00465861233144</v>
       </c>
       <c r="L41" t="n">
-        <v>102.8983708792029</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M41" t="n">
-        <v>114.4942639965961</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N41" t="n">
-        <v>116.3469008881287</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O41" t="n">
-        <v>109.8630792989769</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P41" t="n">
-        <v>93.76559640950512</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q41" t="n">
-        <v>70.4140579394612</v>
+        <v>78.95566622621114</v>
       </c>
       <c r="R41" t="n">
-        <v>40.95933203263934</v>
+        <v>45.92792183058176</v>
       </c>
       <c r="S41" t="n">
-        <v>14.85858800380107</v>
+        <v>16.66101556069301</v>
       </c>
       <c r="T41" t="n">
-        <v>2.854348611591405</v>
+        <v>3.200596626085951</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05216399518613644</v>
+        <v>0.05849177157895508</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3488774748799212</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H42" t="n">
-        <v>3.369421928445555</v>
+        <v>3.778151138318837</v>
       </c>
       <c r="I42" t="n">
-        <v>12.01179025354114</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J42" t="n">
-        <v>32.96127055433501</v>
+        <v>36.95965198479839</v>
       </c>
       <c r="K42" t="n">
-        <v>56.33606137128972</v>
+        <v>63.16993208877593</v>
       </c>
       <c r="L42" t="n">
-        <v>75.75078681548463</v>
+        <v>84.93976934717257</v>
       </c>
       <c r="M42" t="n">
-        <v>88.39759527988176</v>
+        <v>99.12070447805591</v>
       </c>
       <c r="N42" t="n">
-        <v>90.73721659168616</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O42" t="n">
-        <v>83.00682622724159</v>
+        <v>93.07600581307079</v>
       </c>
       <c r="P42" t="n">
-        <v>66.62029605842986</v>
+        <v>74.70170039061104</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.53390363554924</v>
+        <v>49.93610841490982</v>
       </c>
       <c r="R42" t="n">
-        <v>21.66100672982529</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S42" t="n">
-        <v>6.48024607945818</v>
+        <v>7.266335182007384</v>
       </c>
       <c r="T42" t="n">
-        <v>1.406221050064243</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0229524654526264</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2924871553853811</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H43" t="n">
-        <v>2.600476708790026</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I43" t="n">
-        <v>8.795886454680371</v>
+        <v>9.862875332032157</v>
       </c>
       <c r="J43" t="n">
-        <v>20.67884188574644</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K43" t="n">
-        <v>33.98168950750154</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L43" t="n">
-        <v>43.48486308338657</v>
+        <v>48.75981353689658</v>
       </c>
       <c r="M43" t="n">
-        <v>45.84869109372841</v>
+        <v>51.410386744326</v>
       </c>
       <c r="N43" t="n">
-        <v>44.75851169638293</v>
+        <v>50.18796265541033</v>
       </c>
       <c r="O43" t="n">
-        <v>41.3417299266537</v>
+        <v>46.35670666941838</v>
       </c>
       <c r="P43" t="n">
-        <v>35.3749919567919</v>
+        <v>39.66617092423088</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.49181080231586</v>
+        <v>27.46280069025036</v>
       </c>
       <c r="R43" t="n">
-        <v>13.15128609578268</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S43" t="n">
-        <v>5.09725342612523</v>
+        <v>5.715577996222985</v>
       </c>
       <c r="T43" t="n">
-        <v>1.249717845737537</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01595384483920262</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6520499398267057</v>
+        <v>0.7311471447369386</v>
       </c>
       <c r="H44" t="n">
-        <v>6.677806446250251</v>
+        <v>7.487860696037175</v>
       </c>
       <c r="I44" t="n">
-        <v>25.13815530516909</v>
+        <v>28.18755029747085</v>
       </c>
       <c r="J44" t="n">
-        <v>55.34192358036691</v>
+        <v>62.0551999756168</v>
       </c>
       <c r="K44" t="n">
-        <v>82.94319753323137</v>
+        <v>93.00465861233144</v>
       </c>
       <c r="L44" t="n">
-        <v>102.8983708792029</v>
+        <v>115.3805030430745</v>
       </c>
       <c r="M44" t="n">
-        <v>114.4942639965961</v>
+        <v>128.3830410782901</v>
       </c>
       <c r="N44" t="n">
-        <v>116.3469008881287</v>
+        <v>130.4604129032739</v>
       </c>
       <c r="O44" t="n">
-        <v>109.8630792989769</v>
+        <v>123.190068482796</v>
       </c>
       <c r="P44" t="n">
-        <v>93.76559640950512</v>
+        <v>105.1398733471028</v>
       </c>
       <c r="Q44" t="n">
-        <v>70.4140579394612</v>
+        <v>78.95566622621114</v>
       </c>
       <c r="R44" t="n">
-        <v>40.95933203263934</v>
+        <v>45.92792183058176</v>
       </c>
       <c r="S44" t="n">
-        <v>14.85858800380107</v>
+        <v>16.66101556069301</v>
       </c>
       <c r="T44" t="n">
-        <v>2.854348611591405</v>
+        <v>3.200596626085951</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05216399518613644</v>
+        <v>0.05849177157895508</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3488774748799212</v>
+        <v>0.3911982105071274</v>
       </c>
       <c r="H45" t="n">
-        <v>3.369421928445555</v>
+        <v>3.778151138318837</v>
       </c>
       <c r="I45" t="n">
-        <v>12.01179025354114</v>
+        <v>13.4688857564954</v>
       </c>
       <c r="J45" t="n">
-        <v>32.96127055433501</v>
+        <v>36.95965198479839</v>
       </c>
       <c r="K45" t="n">
-        <v>56.33606137128972</v>
+        <v>63.16993208877593</v>
       </c>
       <c r="L45" t="n">
-        <v>75.75078681548463</v>
+        <v>84.93976934717257</v>
       </c>
       <c r="M45" t="n">
-        <v>88.39759527988176</v>
+        <v>99.12070447805591</v>
       </c>
       <c r="N45" t="n">
-        <v>90.73721659168616</v>
+        <v>101.7441345827287</v>
       </c>
       <c r="O45" t="n">
-        <v>83.00682622724159</v>
+        <v>93.07600581307079</v>
       </c>
       <c r="P45" t="n">
-        <v>66.62029605842986</v>
+        <v>74.70170039061104</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.53390363554924</v>
+        <v>49.93610841490982</v>
       </c>
       <c r="R45" t="n">
-        <v>21.66100672982529</v>
+        <v>24.28860468394253</v>
       </c>
       <c r="S45" t="n">
-        <v>6.48024607945818</v>
+        <v>7.266335182007384</v>
       </c>
       <c r="T45" t="n">
-        <v>1.406221050064243</v>
+        <v>1.576803313403728</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0229524654526264</v>
+        <v>0.02573672437546892</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2924871553853811</v>
+        <v>0.3279674384895819</v>
       </c>
       <c r="H46" t="n">
-        <v>2.600476708790026</v>
+        <v>2.915928680389194</v>
       </c>
       <c r="I46" t="n">
-        <v>8.795886454680371</v>
+        <v>9.862875332032157</v>
       </c>
       <c r="J46" t="n">
-        <v>20.67884188574644</v>
+        <v>23.18729790121344</v>
       </c>
       <c r="K46" t="n">
-        <v>33.98168950750154</v>
+        <v>38.10385330815323</v>
       </c>
       <c r="L46" t="n">
-        <v>43.48486308338657</v>
+        <v>48.75981353689658</v>
       </c>
       <c r="M46" t="n">
-        <v>45.84869109372841</v>
+        <v>51.410386744326</v>
       </c>
       <c r="N46" t="n">
-        <v>44.75851169638293</v>
+        <v>50.18796265541033</v>
       </c>
       <c r="O46" t="n">
-        <v>41.3417299266537</v>
+        <v>46.35670666941838</v>
       </c>
       <c r="P46" t="n">
-        <v>35.3749919567919</v>
+        <v>39.66617092423088</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.49181080231586</v>
+        <v>27.46280069025036</v>
       </c>
       <c r="R46" t="n">
-        <v>13.15128609578268</v>
+        <v>14.74660864335883</v>
       </c>
       <c r="S46" t="n">
-        <v>5.09725342612523</v>
+        <v>5.715577996222985</v>
       </c>
       <c r="T46" t="n">
-        <v>1.249717845737537</v>
+        <v>1.40131541900094</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01595384483920262</v>
+        <v>0.01788913300852267</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
